--- a/output.xlsx
+++ b/output.xlsx
@@ -15,16 +15,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -40,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,30 +40,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,394 +340,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP43"/>
+  <dimension ref="A1:AP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>41</v>
+      <c r="A1">
+        <v>143236753.0134902</v>
+      </c>
+      <c r="B1">
+        <v>216029.3440126635</v>
+      </c>
+      <c r="C1">
+        <v>3041.596661699663</v>
+      </c>
+      <c r="D1">
+        <v>23664.12093677085</v>
+      </c>
+      <c r="E1">
+        <v>18882.38784436293</v>
+      </c>
+      <c r="F1">
+        <v>420502633.7450433</v>
+      </c>
+      <c r="G1">
+        <v>72437850.90198123</v>
+      </c>
+      <c r="H1">
+        <v>5856186.243582716</v>
+      </c>
+      <c r="I1">
+        <v>27489959.84573791</v>
+      </c>
+      <c r="J1">
+        <v>18658107.81802183</v>
+      </c>
+      <c r="K1">
+        <v>9805.284753256321</v>
+      </c>
+      <c r="L1">
+        <v>53278430.33463263</v>
+      </c>
+      <c r="M1">
+        <v>227350.9005574107</v>
+      </c>
+      <c r="N1">
+        <v>37037.83211265666</v>
+      </c>
+      <c r="O1">
+        <v>93321.91160185642</v>
+      </c>
+      <c r="P1">
+        <v>28848.75598979599</v>
+      </c>
+      <c r="Q1">
+        <v>43109.14071693611</v>
+      </c>
+      <c r="R1">
+        <v>38545.94747185922</v>
+      </c>
+      <c r="S1">
+        <v>52750.0309547056</v>
+      </c>
+      <c r="T1">
+        <v>2837.89044103398</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>2549446.871936948</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>74768.49561700634</v>
+      </c>
+      <c r="Y1">
+        <v>647.6919513147541</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>21669759.27316115</v>
+      </c>
+      <c r="AB1">
+        <v>13713.46916297795</v>
+      </c>
+      <c r="AC1">
+        <v>109509.3545469703</v>
+      </c>
+      <c r="AD1">
+        <v>45748948.57572991</v>
+      </c>
+      <c r="AE1">
+        <v>442389.8405998992</v>
+      </c>
+      <c r="AF1">
+        <v>104213.9638746959</v>
+      </c>
+      <c r="AG1">
+        <v>257649.0220337931</v>
+      </c>
+      <c r="AH1">
+        <v>5925699.108381977</v>
+      </c>
+      <c r="AI1">
+        <v>2936001.047339809</v>
+      </c>
+      <c r="AJ1">
+        <v>788868.7517063295</v>
+      </c>
+      <c r="AK1">
+        <v>7340447.269105161</v>
+      </c>
+      <c r="AL1">
+        <v>1870708.372215742</v>
+      </c>
+      <c r="AM1">
+        <v>497220.7315148565</v>
+      </c>
+      <c r="AN1">
+        <v>373875.2210332544</v>
+      </c>
+      <c r="AO1">
+        <v>405618.025550283</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42">
       <c r="A2">
-        <v>143236753.0134902</v>
+        <v>598457.1639099354</v>
       </c>
       <c r="B2">
-        <v>216029.3440126635</v>
+        <v>36588270.66849578</v>
       </c>
       <c r="C2">
-        <v>3041.596661699663</v>
+        <v>89962.46096395585</v>
       </c>
       <c r="D2">
-        <v>23664.12093677085</v>
+        <v>741944.5138008907</v>
       </c>
       <c r="E2">
-        <v>18882.38784436293</v>
+        <v>1161204.238921391</v>
       </c>
       <c r="F2">
-        <v>420502633.7450433</v>
+        <v>2637811.72315501</v>
       </c>
       <c r="G2">
-        <v>72437850.90198123</v>
+        <v>1568828.817091457</v>
       </c>
       <c r="H2">
-        <v>5856186.243582716</v>
+        <v>462068.0347042253</v>
       </c>
       <c r="I2">
-        <v>27489959.84573791</v>
+        <v>305874.7436280724</v>
       </c>
       <c r="J2">
-        <v>18658107.81802183</v>
+        <v>3512690.633430952</v>
       </c>
       <c r="K2">
-        <v>9805.284753256321</v>
+        <v>22583171.90030623</v>
       </c>
       <c r="L2">
-        <v>53278430.33463263</v>
+        <v>23856266.85228279</v>
       </c>
       <c r="M2">
-        <v>227350.9005574107</v>
+        <v>35737638.83359192</v>
       </c>
       <c r="N2">
-        <v>37037.83211265666</v>
+        <v>26152662.79079679</v>
       </c>
       <c r="O2">
-        <v>93321.91160185642</v>
+        <v>490850.3411379006</v>
       </c>
       <c r="P2">
-        <v>28848.75598979599</v>
+        <v>329864.6332932515</v>
       </c>
       <c r="Q2">
-        <v>43109.14071693611</v>
+        <v>265541.4242635319</v>
       </c>
       <c r="R2">
-        <v>38545.94747185922</v>
+        <v>82485.23578872465</v>
       </c>
       <c r="S2">
-        <v>52750.0309547056</v>
+        <v>185574.0521038793</v>
       </c>
       <c r="T2">
-        <v>2837.89044103398</v>
+        <v>381.8480184794041</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>19348.22802812283</v>
       </c>
       <c r="V2">
-        <v>2549446.871936948</v>
+        <v>121337.2866346339</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>38436.81707702002</v>
       </c>
       <c r="X2">
-        <v>74768.49561700634</v>
+        <v>89915670.10519598</v>
       </c>
       <c r="Y2">
-        <v>647.6919513147541</v>
+        <v>1429047.066281949</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>21669759.27316115</v>
+        <v>755671.5251379216</v>
       </c>
       <c r="AB2">
-        <v>13713.46916297795</v>
+        <v>39911.34835838893</v>
       </c>
       <c r="AC2">
-        <v>109509.3545469703</v>
+        <v>96590.35665820785</v>
       </c>
       <c r="AD2">
-        <v>45748948.57572991</v>
+        <v>70062.35702556475</v>
       </c>
       <c r="AE2">
-        <v>442389.8405998992</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>104213.9638746959</v>
+        <v>29894.09702373061</v>
       </c>
       <c r="AG2">
-        <v>257649.0220337931</v>
+        <v>57263.86767962592</v>
       </c>
       <c r="AH2">
-        <v>5925699.108381977</v>
+        <v>55.3497828981635</v>
       </c>
       <c r="AI2">
-        <v>2936001.047339809</v>
+        <v>199256.2272888913</v>
       </c>
       <c r="AJ2">
-        <v>788868.7517063295</v>
+        <v>133089.4429470762</v>
       </c>
       <c r="AK2">
-        <v>7340447.269105161</v>
+        <v>49159.33297637114</v>
       </c>
       <c r="AL2">
-        <v>1870708.372215742</v>
+        <v>324512.7532945171</v>
       </c>
       <c r="AM2">
-        <v>497220.7315148565</v>
+        <v>582229.65818746</v>
       </c>
       <c r="AN2">
-        <v>373875.2210332544</v>
+        <v>415172.6550544128</v>
       </c>
       <c r="AO2">
-        <v>405618.025550283</v>
+        <v>42661.30945748022</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>577003.3722474989</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="A3">
-        <v>598457.1639099354</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>36588270.66849578</v>
+        <v>70077.07070716427</v>
       </c>
       <c r="C3">
-        <v>89962.46096395585</v>
+        <v>1044294.14080501</v>
       </c>
       <c r="D3">
-        <v>741944.5138008907</v>
+        <v>44907.49065789598</v>
       </c>
       <c r="E3">
-        <v>1161204.238921391</v>
+        <v>43260.36556156223</v>
       </c>
       <c r="F3">
-        <v>2637811.72315501</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1568828.817091457</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>462068.0347042253</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>305874.7436280724</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3512690.633430952</v>
+        <v>87547.8933364767</v>
       </c>
       <c r="K3">
-        <v>22583171.90030623</v>
+        <v>232750580.1941346</v>
       </c>
       <c r="L3">
-        <v>23856266.85228279</v>
+        <v>22992748.63092264</v>
       </c>
       <c r="M3">
-        <v>35737638.83359192</v>
+        <v>1763892.290346296</v>
       </c>
       <c r="N3">
-        <v>26152662.79079679</v>
+        <v>1687665.138055894</v>
       </c>
       <c r="O3">
-        <v>490850.3411379006</v>
+        <v>837286.0114044512</v>
       </c>
       <c r="P3">
-        <v>329864.6332932515</v>
+        <v>720051.8071295427</v>
       </c>
       <c r="Q3">
-        <v>265541.4242635319</v>
+        <v>508331.2959055617</v>
       </c>
       <c r="R3">
-        <v>82485.23578872465</v>
+        <v>751041.2036594396</v>
       </c>
       <c r="S3">
-        <v>185574.0521038793</v>
+        <v>90511.37831008175</v>
       </c>
       <c r="T3">
-        <v>381.8480184794041</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>19348.22802812283</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>121337.2866346339</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>38436.81707702002</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>89915670.10519598</v>
+        <v>8323057.753254497</v>
       </c>
       <c r="Y3">
-        <v>1429047.066281949</v>
+        <v>27937238.73908314</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>755671.5251379216</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>39911.34835838893</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>96590.35665820785</v>
+        <v>608.4814618622985</v>
       </c>
       <c r="AD3">
-        <v>70062.35702556475</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>29894.09702373061</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>57263.86767962592</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>55.3497828981635</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>199256.2272888913</v>
+        <v>3062.248363180567</v>
       </c>
       <c r="AJ3">
-        <v>133089.4429470762</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>49159.33297637114</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>324512.7532945171</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>582229.65818746</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>415172.6550544128</v>
+        <v>58980.68650605615</v>
       </c>
       <c r="AO3">
-        <v>42661.30945748022</v>
+        <v>2330.118669647301</v>
       </c>
       <c r="AP3">
-        <v>577003.3722474989</v>
+        <v>66598.50382050272</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -761,16 +735,16 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>70077.07070716427</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1044294.14080501</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>44907.49065789598</v>
+        <v>11645181.97343097</v>
       </c>
       <c r="E4">
-        <v>43260.36556156223</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -785,52 +759,52 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>87547.8933364767</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>232750580.1941346</v>
+        <v>178938.1874291181</v>
       </c>
       <c r="L4">
-        <v>22992748.63092264</v>
+        <v>5122175.395752202</v>
       </c>
       <c r="M4">
-        <v>1763892.290346296</v>
+        <v>1702693.716607469</v>
       </c>
       <c r="N4">
-        <v>1687665.138055894</v>
+        <v>182545712.9973758</v>
       </c>
       <c r="O4">
-        <v>837286.0114044512</v>
+        <v>4112730.794024128</v>
       </c>
       <c r="P4">
-        <v>720051.8071295427</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>508331.2959055617</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>751041.2036594396</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>90511.37831008175</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.4219598395070355</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>10431.93413143592</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>8323057.753254497</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>27937238.73908314</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -842,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>608.4814618622985</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -860,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>3062.248363180567</v>
+        <v>211879.0063827874</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -875,87 +849,87 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>58980.68650605615</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>2330.118669647301</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>66598.50382050272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:42">
       <c r="A5">
-        <v>0</v>
+        <v>1972.293057599761</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1049056.074793313</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>15732736.18861054</v>
       </c>
       <c r="D5">
-        <v>11645181.97343097</v>
+        <v>333315.9739756697</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1737756.787899405</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>623824.0946924059</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12210.19659283145</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6141.074112203795</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12328.67021380733</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>689640.2255064555</v>
       </c>
       <c r="K5">
-        <v>178938.1874291181</v>
+        <v>20223.38389126568</v>
       </c>
       <c r="L5">
-        <v>5122175.395752202</v>
+        <v>9392788.418492997</v>
       </c>
       <c r="M5">
-        <v>1702693.716607469</v>
+        <v>48169278.60490824</v>
       </c>
       <c r="N5">
-        <v>182545712.9973758</v>
+        <v>442030.7206810135</v>
       </c>
       <c r="O5">
-        <v>4112730.794024128</v>
+        <v>126625.0204692407</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>57486.26689714652</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>95286.24005819457</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>161657.3810576129</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>493020.3786362495</v>
       </c>
       <c r="T5">
-        <v>0.4219598395070355</v>
+        <v>74248.08217980016</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>4892.703247406846</v>
       </c>
       <c r="V5">
-        <v>10431.93413143592</v>
+        <v>18912.78197289996</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>12306.55148515819</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>246434.322007547</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -964,4915 +938,4787 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>20539194.50444297</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>44410.45917404769</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>72184.55021072218</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>5656.959182425208</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>43.91839288661915</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1136.640761832015</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>273.2813516192664</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1092.549928879694</v>
       </c>
       <c r="AI5">
-        <v>211879.0063827874</v>
+        <v>14815.05989870029</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>2589.413015029342</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>6130.942239071731</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>3074.00091592587</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>2372.9749680522</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>651.5322729390211</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>4529.843174702832</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>19838.90831733104</v>
       </c>
     </row>
     <row r="6" spans="1:42">
       <c r="A6">
-        <v>1972.293057599761</v>
+        <v>86986163.51078784</v>
       </c>
       <c r="B6">
-        <v>1049056.074793313</v>
+        <v>393570.6167680311</v>
       </c>
       <c r="C6">
-        <v>15732736.18861054</v>
+        <v>98560.21451708586</v>
       </c>
       <c r="D6">
-        <v>333315.9739756697</v>
+        <v>660886.9526347711</v>
       </c>
       <c r="E6">
-        <v>1737756.787899405</v>
+        <v>487887.9851034557</v>
       </c>
       <c r="F6">
-        <v>623824.0946924059</v>
+        <v>233744874.0160677</v>
       </c>
       <c r="G6">
-        <v>12210.19659283145</v>
+        <v>870757.5769195647</v>
       </c>
       <c r="H6">
-        <v>6141.074112203795</v>
+        <v>12431446.97213352</v>
       </c>
       <c r="I6">
-        <v>12328.67021380733</v>
+        <v>1185646.691492982</v>
       </c>
       <c r="J6">
-        <v>689640.2255064555</v>
+        <v>1637608.082756985</v>
       </c>
       <c r="K6">
-        <v>20223.38389126568</v>
+        <v>1763536.406050004</v>
       </c>
       <c r="L6">
-        <v>9392788.418492997</v>
+        <v>32113767.89993951</v>
       </c>
       <c r="M6">
-        <v>48169278.60490824</v>
+        <v>1677198.248836238</v>
       </c>
       <c r="N6">
-        <v>442030.7206810135</v>
+        <v>7109373.383991945</v>
       </c>
       <c r="O6">
-        <v>126625.0204692407</v>
+        <v>2398970.258076489</v>
       </c>
       <c r="P6">
-        <v>57486.26689714652</v>
+        <v>3895884.252410769</v>
       </c>
       <c r="Q6">
-        <v>95286.24005819457</v>
+        <v>2018843.434987015</v>
       </c>
       <c r="R6">
-        <v>161657.3810576129</v>
+        <v>2550676.653849236</v>
       </c>
       <c r="S6">
-        <v>493020.3786362495</v>
+        <v>3319599.680123105</v>
       </c>
       <c r="T6">
-        <v>74248.08217980016</v>
+        <v>5417148.457508499</v>
       </c>
       <c r="U6">
-        <v>4892.703247406846</v>
+        <v>581012.128687824</v>
       </c>
       <c r="V6">
-        <v>18912.78197289996</v>
+        <v>517563.7796086174</v>
       </c>
       <c r="W6">
-        <v>12306.55148515819</v>
+        <v>16439.77554268841</v>
       </c>
       <c r="X6">
-        <v>246434.322007547</v>
+        <v>4075239.323568861</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>258324.2899570599</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>304119.6510650997</v>
       </c>
       <c r="AA6">
-        <v>20539194.50444297</v>
+        <v>5195262.915590433</v>
       </c>
       <c r="AB6">
-        <v>44410.45917404769</v>
+        <v>1906304.08413398</v>
       </c>
       <c r="AC6">
-        <v>72184.55021072218</v>
+        <v>6883634.645096513</v>
       </c>
       <c r="AD6">
-        <v>5656.959182425208</v>
+        <v>133344107.5708922</v>
       </c>
       <c r="AE6">
-        <v>43.91839288661915</v>
+        <v>4042298.885784641</v>
       </c>
       <c r="AF6">
-        <v>1136.640761832015</v>
+        <v>3428429.309061815</v>
       </c>
       <c r="AG6">
-        <v>273.2813516192664</v>
+        <v>3696410.815948404</v>
       </c>
       <c r="AH6">
-        <v>1092.549928879694</v>
+        <v>13947204.54278702</v>
       </c>
       <c r="AI6">
-        <v>14815.05989870029</v>
+        <v>3585910.504449025</v>
       </c>
       <c r="AJ6">
-        <v>2589.413015029342</v>
+        <v>2317258.466366014</v>
       </c>
       <c r="AK6">
-        <v>6130.942239071731</v>
+        <v>1086675.521602366</v>
       </c>
       <c r="AL6">
-        <v>3074.00091592587</v>
+        <v>6409925.962435553</v>
       </c>
       <c r="AM6">
-        <v>2372.9749680522</v>
+        <v>10860604.84218629</v>
       </c>
       <c r="AN6">
-        <v>651.5322729390211</v>
+        <v>5869883.162601485</v>
       </c>
       <c r="AO6">
-        <v>4529.843174702832</v>
+        <v>8634345.044431277</v>
       </c>
       <c r="AP6">
-        <v>19838.90831733104</v>
+        <v>5490282.692638551</v>
       </c>
     </row>
     <row r="7" spans="1:42">
       <c r="A7">
-        <v>86986163.51078784</v>
+        <v>38643.6474812473</v>
       </c>
       <c r="B7">
-        <v>393570.6167680311</v>
+        <v>102115.0882705795</v>
       </c>
       <c r="C7">
-        <v>98560.21451708586</v>
+        <v>21784.63743099706</v>
       </c>
       <c r="D7">
-        <v>660886.9526347711</v>
+        <v>44858.66964922996</v>
       </c>
       <c r="E7">
-        <v>487887.9851034557</v>
+        <v>248823.5699589658</v>
       </c>
       <c r="F7">
-        <v>233744874.0160677</v>
+        <v>589473.0950540287</v>
       </c>
       <c r="G7">
-        <v>870757.5769195647</v>
+        <v>143875341.9164501</v>
       </c>
       <c r="H7">
-        <v>12431446.97213352</v>
+        <v>132965708.2230043</v>
       </c>
       <c r="I7">
-        <v>1185646.691492982</v>
+        <v>3466290.380469044</v>
       </c>
       <c r="J7">
-        <v>1637608.082756985</v>
+        <v>10499155.95756538</v>
       </c>
       <c r="K7">
-        <v>1763536.406050004</v>
+        <v>50511.56199881562</v>
       </c>
       <c r="L7">
-        <v>32113767.89993951</v>
+        <v>6413286.829192297</v>
       </c>
       <c r="M7">
-        <v>1677198.248836238</v>
+        <v>263152.5446416406</v>
       </c>
       <c r="N7">
-        <v>7109373.383991945</v>
+        <v>180059.7911487502</v>
       </c>
       <c r="O7">
-        <v>2398970.258076489</v>
+        <v>920674.6920322713</v>
       </c>
       <c r="P7">
-        <v>3895884.252410769</v>
+        <v>346957.1365397943</v>
       </c>
       <c r="Q7">
-        <v>2018843.434987015</v>
+        <v>677345.2384025829</v>
       </c>
       <c r="R7">
-        <v>2550676.653849236</v>
+        <v>1048831.347027226</v>
       </c>
       <c r="S7">
-        <v>3319599.680123105</v>
+        <v>733798.7549728628</v>
       </c>
       <c r="T7">
-        <v>5417148.457508499</v>
+        <v>436285.0486982995</v>
       </c>
       <c r="U7">
-        <v>581012.128687824</v>
+        <v>200106.7934319115</v>
       </c>
       <c r="V7">
-        <v>517563.7796086174</v>
+        <v>3311523.304326809</v>
       </c>
       <c r="W7">
-        <v>16439.77554268841</v>
+        <v>38027.81791183389</v>
       </c>
       <c r="X7">
-        <v>4075239.323568861</v>
+        <v>6545.656265480043</v>
       </c>
       <c r="Y7">
-        <v>258324.2899570599</v>
+        <v>1698.058885908913</v>
       </c>
       <c r="Z7">
-        <v>304119.6510650997</v>
+        <v>7012.844320910142</v>
       </c>
       <c r="AA7">
-        <v>5195262.915590433</v>
+        <v>86957.42833726146</v>
       </c>
       <c r="AB7">
-        <v>1906304.08413398</v>
+        <v>403301.8346745683</v>
       </c>
       <c r="AC7">
-        <v>6883634.645096513</v>
+        <v>1342590.282451736</v>
       </c>
       <c r="AD7">
-        <v>133344107.5708922</v>
+        <v>2078694.36263246</v>
       </c>
       <c r="AE7">
-        <v>4042298.885784641</v>
+        <v>96510.56198982685</v>
       </c>
       <c r="AF7">
-        <v>3428429.309061815</v>
+        <v>14748.63519946242</v>
       </c>
       <c r="AG7">
-        <v>3696410.815948404</v>
+        <v>3420.985534000812</v>
       </c>
       <c r="AH7">
-        <v>13947204.54278702</v>
+        <v>921917.0693485896</v>
       </c>
       <c r="AI7">
-        <v>3585910.504449025</v>
+        <v>1296534.894731126</v>
       </c>
       <c r="AJ7">
-        <v>2317258.466366014</v>
+        <v>127834.2519217876</v>
       </c>
       <c r="AK7">
-        <v>1086675.521602366</v>
+        <v>317038.4843476234</v>
       </c>
       <c r="AL7">
-        <v>6409925.962435553</v>
+        <v>1089376.839188674</v>
       </c>
       <c r="AM7">
-        <v>10860604.84218629</v>
+        <v>953625.8480135814</v>
       </c>
       <c r="AN7">
-        <v>5869883.162601485</v>
+        <v>5896405.910310014</v>
       </c>
       <c r="AO7">
-        <v>8634345.044431277</v>
+        <v>202804.9503321252</v>
       </c>
       <c r="AP7">
-        <v>5490282.692638551</v>
+        <v>2680668.13940211</v>
       </c>
     </row>
     <row r="8" spans="1:42">
       <c r="A8">
-        <v>38643.6474812473</v>
+        <v>182480.4290177032</v>
       </c>
       <c r="B8">
-        <v>102115.0882705795</v>
+        <v>1560981.890907993</v>
       </c>
       <c r="C8">
-        <v>21784.63743099706</v>
+        <v>218274.020413177</v>
       </c>
       <c r="D8">
-        <v>44858.66964922996</v>
+        <v>264080.8150193976</v>
       </c>
       <c r="E8">
-        <v>248823.5699589658</v>
+        <v>342756.4432888223</v>
       </c>
       <c r="F8">
-        <v>589473.0950540287</v>
+        <v>3688543.78508856</v>
       </c>
       <c r="G8">
-        <v>143875341.9164501</v>
+        <v>2184251.05471229</v>
       </c>
       <c r="H8">
-        <v>132965708.2230043</v>
+        <v>55135180.51354945</v>
       </c>
       <c r="I8">
-        <v>3466290.380469044</v>
+        <v>4878271.779186848</v>
       </c>
       <c r="J8">
-        <v>10499155.95756538</v>
+        <v>2533860.579573669</v>
       </c>
       <c r="K8">
-        <v>50511.56199881562</v>
+        <v>577219.9528548016</v>
       </c>
       <c r="L8">
-        <v>6413286.829192297</v>
+        <v>4243309.41890308</v>
       </c>
       <c r="M8">
-        <v>263152.5446416406</v>
+        <v>4208593.419763925</v>
       </c>
       <c r="N8">
-        <v>180059.7911487502</v>
+        <v>938711.3379190753</v>
       </c>
       <c r="O8">
-        <v>920674.6920322713</v>
+        <v>1002763.511190372</v>
       </c>
       <c r="P8">
-        <v>346957.1365397943</v>
+        <v>2121116.68975068</v>
       </c>
       <c r="Q8">
-        <v>677345.2384025829</v>
+        <v>1355560.18123287</v>
       </c>
       <c r="R8">
-        <v>1048831.347027226</v>
+        <v>6147307.152145636</v>
       </c>
       <c r="S8">
-        <v>733798.7549728628</v>
+        <v>1836163.036759771</v>
       </c>
       <c r="T8">
-        <v>436285.0486982995</v>
+        <v>1543106.950037939</v>
       </c>
       <c r="U8">
-        <v>200106.7934319115</v>
+        <v>409497.1766448393</v>
       </c>
       <c r="V8">
-        <v>3311523.304326809</v>
+        <v>640035.5420670118</v>
       </c>
       <c r="W8">
-        <v>38027.81791183389</v>
+        <v>107871.4792301566</v>
       </c>
       <c r="X8">
-        <v>6545.656265480043</v>
+        <v>707172.0949186037</v>
       </c>
       <c r="Y8">
-        <v>1698.058885908913</v>
+        <v>211717.5953096191</v>
       </c>
       <c r="Z8">
-        <v>7012.844320910142</v>
+        <v>329339.2727278015</v>
       </c>
       <c r="AA8">
-        <v>86957.42833726146</v>
+        <v>3600231.110412138</v>
       </c>
       <c r="AB8">
-        <v>403301.8346745683</v>
+        <v>3031990.134568243</v>
       </c>
       <c r="AC8">
-        <v>1342590.282451736</v>
+        <v>2538090.539947998</v>
       </c>
       <c r="AD8">
-        <v>2078694.36263246</v>
+        <v>2214282.408323505</v>
       </c>
       <c r="AE8">
-        <v>96510.56198982685</v>
+        <v>759614.3066250243</v>
       </c>
       <c r="AF8">
-        <v>14748.63519946242</v>
+        <v>6947632.617225808</v>
       </c>
       <c r="AG8">
-        <v>3420.985534000812</v>
+        <v>1797595.525801744</v>
       </c>
       <c r="AH8">
-        <v>921917.0693485896</v>
+        <v>12638206.44408016</v>
       </c>
       <c r="AI8">
-        <v>1296534.894731126</v>
+        <v>907727.5151950431</v>
       </c>
       <c r="AJ8">
-        <v>127834.2519217876</v>
+        <v>923042.9167353462</v>
       </c>
       <c r="AK8">
-        <v>317038.4843476234</v>
+        <v>545599.7629566161</v>
       </c>
       <c r="AL8">
-        <v>1089376.839188674</v>
+        <v>1356175.063566643</v>
       </c>
       <c r="AM8">
-        <v>953625.8480135814</v>
+        <v>514991.1373081997</v>
       </c>
       <c r="AN8">
-        <v>5896405.910310014</v>
+        <v>3320137.927428905</v>
       </c>
       <c r="AO8">
-        <v>202804.9503321252</v>
+        <v>4781599.948041318</v>
       </c>
       <c r="AP8">
-        <v>2680668.13940211</v>
+        <v>17758912.60653274</v>
       </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9">
-        <v>182480.4290177032</v>
+        <v>288422.5277679959</v>
       </c>
       <c r="B9">
-        <v>1560981.890907993</v>
+        <v>3629019.63141667</v>
       </c>
       <c r="C9">
-        <v>218274.020413177</v>
+        <v>197070.5740595459</v>
       </c>
       <c r="D9">
-        <v>264080.8150193976</v>
+        <v>298002.8589290906</v>
       </c>
       <c r="E9">
-        <v>342756.4432888223</v>
+        <v>77808.04897210798</v>
       </c>
       <c r="F9">
-        <v>3688543.78508856</v>
+        <v>892221.0773954598</v>
       </c>
       <c r="G9">
-        <v>2184251.05471229</v>
+        <v>415492.0624028165</v>
       </c>
       <c r="H9">
-        <v>55135180.51354945</v>
+        <v>452775.9457429237</v>
       </c>
       <c r="I9">
-        <v>4878271.779186848</v>
+        <v>86642602.91530314</v>
       </c>
       <c r="J9">
-        <v>2533860.579573669</v>
+        <v>7812285.434968982</v>
       </c>
       <c r="K9">
-        <v>577219.9528548016</v>
+        <v>112753.5869142025</v>
       </c>
       <c r="L9">
-        <v>4243309.41890308</v>
+        <v>2045365.61895406</v>
       </c>
       <c r="M9">
-        <v>4208593.419763925</v>
+        <v>2019608.625644327</v>
       </c>
       <c r="N9">
-        <v>938711.3379190753</v>
+        <v>231754.8035459694</v>
       </c>
       <c r="O9">
-        <v>1002763.511190372</v>
+        <v>4494757.646494538</v>
       </c>
       <c r="P9">
-        <v>2121116.68975068</v>
+        <v>859263.239259975</v>
       </c>
       <c r="Q9">
-        <v>1355560.18123287</v>
+        <v>556765.5647207798</v>
       </c>
       <c r="R9">
-        <v>6147307.152145636</v>
+        <v>7204319.712078519</v>
       </c>
       <c r="S9">
-        <v>1836163.036759771</v>
+        <v>932727.8181491769</v>
       </c>
       <c r="T9">
-        <v>1543106.950037939</v>
+        <v>713474.658243285</v>
       </c>
       <c r="U9">
-        <v>409497.1766448393</v>
+        <v>168232.98792045</v>
       </c>
       <c r="V9">
-        <v>640035.5420670118</v>
+        <v>1023938.335361754</v>
       </c>
       <c r="W9">
-        <v>107871.4792301566</v>
+        <v>36607.74935996869</v>
       </c>
       <c r="X9">
-        <v>707172.0949186037</v>
+        <v>161182.4396058603</v>
       </c>
       <c r="Y9">
-        <v>211717.5953096191</v>
+        <v>1933.344834774135</v>
       </c>
       <c r="Z9">
-        <v>329339.2727278015</v>
+        <v>2007.674140548094</v>
       </c>
       <c r="AA9">
-        <v>3600231.110412138</v>
+        <v>55695865.78744617</v>
       </c>
       <c r="AB9">
-        <v>3031990.134568243</v>
+        <v>426866.2593876504</v>
       </c>
       <c r="AC9">
-        <v>2538090.539947998</v>
+        <v>636291.744554149</v>
       </c>
       <c r="AD9">
-        <v>2214282.408323505</v>
+        <v>243664.4877504395</v>
       </c>
       <c r="AE9">
-        <v>759614.3066250243</v>
+        <v>632429.770938744</v>
       </c>
       <c r="AF9">
-        <v>6947632.617225808</v>
+        <v>712177.1163950432</v>
       </c>
       <c r="AG9">
-        <v>1797595.525801744</v>
+        <v>440020.2440203241</v>
       </c>
       <c r="AH9">
-        <v>12638206.44408016</v>
+        <v>458194.8747621701</v>
       </c>
       <c r="AI9">
-        <v>907727.5151950431</v>
+        <v>38430.08999052333</v>
       </c>
       <c r="AJ9">
-        <v>923042.9167353462</v>
+        <v>289225.7133934787</v>
       </c>
       <c r="AK9">
-        <v>545599.7629566161</v>
+        <v>213952.4423533876</v>
       </c>
       <c r="AL9">
-        <v>1356175.063566643</v>
+        <v>563718.0789535465</v>
       </c>
       <c r="AM9">
-        <v>514991.1373081997</v>
+        <v>298848.7481541046</v>
       </c>
       <c r="AN9">
-        <v>3320137.927428905</v>
+        <v>71659.54004012492</v>
       </c>
       <c r="AO9">
-        <v>4781599.948041318</v>
+        <v>285567.7804220567</v>
       </c>
       <c r="AP9">
-        <v>17758912.60653274</v>
+        <v>3648111.385263625</v>
       </c>
     </row>
     <row r="10" spans="1:42">
       <c r="A10">
-        <v>288422.5277679959</v>
+        <v>884854.3945920087</v>
       </c>
       <c r="B10">
-        <v>3629019.63141667</v>
+        <v>29179.83442142631</v>
       </c>
       <c r="C10">
-        <v>197070.5740595459</v>
+        <v>12224.01679838126</v>
       </c>
       <c r="D10">
-        <v>298002.8589290906</v>
+        <v>166929.984435996</v>
       </c>
       <c r="E10">
-        <v>77808.04897210798</v>
+        <v>268523.2135125632</v>
       </c>
       <c r="F10">
-        <v>892221.0773954598</v>
+        <v>14664492.91019593</v>
       </c>
       <c r="G10">
-        <v>415492.0624028165</v>
+        <v>1283865.690420536</v>
       </c>
       <c r="H10">
-        <v>452775.9457429237</v>
+        <v>2291928.485033227</v>
       </c>
       <c r="I10">
-        <v>86642602.91530314</v>
+        <v>2566951.565155469</v>
       </c>
       <c r="J10">
-        <v>7812285.434968982</v>
+        <v>101250535.8568643</v>
       </c>
       <c r="K10">
-        <v>112753.5869142025</v>
+        <v>221634.7384978858</v>
       </c>
       <c r="L10">
-        <v>2045365.61895406</v>
+        <v>10600374.90386141</v>
       </c>
       <c r="M10">
-        <v>2019608.625644327</v>
+        <v>9564102.695986835</v>
       </c>
       <c r="N10">
-        <v>231754.8035459694</v>
+        <v>434671.6336359707</v>
       </c>
       <c r="O10">
-        <v>4494757.646494538</v>
+        <v>1809438.880462296</v>
       </c>
       <c r="P10">
-        <v>859263.239259975</v>
+        <v>1882352.217307418</v>
       </c>
       <c r="Q10">
-        <v>556765.5647207798</v>
+        <v>1350773.306942942</v>
       </c>
       <c r="R10">
-        <v>7204319.712078519</v>
+        <v>1661641.704292664</v>
       </c>
       <c r="S10">
-        <v>932727.8181491769</v>
+        <v>4585607.785919514</v>
       </c>
       <c r="T10">
-        <v>713474.658243285</v>
+        <v>4230116.325283453</v>
       </c>
       <c r="U10">
-        <v>168232.98792045</v>
+        <v>405826.5559824785</v>
       </c>
       <c r="V10">
-        <v>1023938.335361754</v>
+        <v>720962.5516526287</v>
       </c>
       <c r="W10">
-        <v>36607.74935996869</v>
+        <v>7819.794828953636</v>
       </c>
       <c r="X10">
-        <v>161182.4396058603</v>
+        <v>374215.0882531044</v>
       </c>
       <c r="Y10">
-        <v>1933.344834774135</v>
+        <v>5746.298594202456</v>
       </c>
       <c r="Z10">
-        <v>2007.674140548094</v>
+        <v>11851.50681837464</v>
       </c>
       <c r="AA10">
-        <v>55695865.78744617</v>
+        <v>4372378.722293203</v>
       </c>
       <c r="AB10">
-        <v>426866.2593876504</v>
+        <v>7411376.577619399</v>
       </c>
       <c r="AC10">
-        <v>636291.744554149</v>
+        <v>3175845.930332114</v>
       </c>
       <c r="AD10">
-        <v>243664.4877504395</v>
+        <v>2056438.100543837</v>
       </c>
       <c r="AE10">
-        <v>632429.770938744</v>
+        <v>17690577.98142006</v>
       </c>
       <c r="AF10">
-        <v>712177.1163950432</v>
+        <v>26570375.89452897</v>
       </c>
       <c r="AG10">
-        <v>440020.2440203241</v>
+        <v>4293691.15627494</v>
       </c>
       <c r="AH10">
-        <v>458194.8747621701</v>
+        <v>62758398.0137499</v>
       </c>
       <c r="AI10">
-        <v>38430.08999052333</v>
+        <v>2110927.252284118</v>
       </c>
       <c r="AJ10">
-        <v>289225.7133934787</v>
+        <v>4018715.525922684</v>
       </c>
       <c r="AK10">
-        <v>213952.4423533876</v>
+        <v>452843.9786962981</v>
       </c>
       <c r="AL10">
-        <v>563718.0789535465</v>
+        <v>1610023.701710331</v>
       </c>
       <c r="AM10">
-        <v>298848.7481541046</v>
+        <v>10133623.90452717</v>
       </c>
       <c r="AN10">
-        <v>71659.54004012492</v>
+        <v>305638.8647836441</v>
       </c>
       <c r="AO10">
-        <v>285567.7804220567</v>
+        <v>9179171.889795307</v>
       </c>
       <c r="AP10">
-        <v>3648111.385263625</v>
+        <v>17118431.48116735</v>
       </c>
     </row>
     <row r="11" spans="1:42">
       <c r="A11">
-        <v>884854.3945920087</v>
+        <v>5811001.396869995</v>
       </c>
       <c r="B11">
-        <v>29179.83442142631</v>
+        <v>930120.7269776359</v>
       </c>
       <c r="C11">
-        <v>12224.01679838126</v>
+        <v>663783.603233812</v>
       </c>
       <c r="D11">
-        <v>166929.984435996</v>
+        <v>6490296.222064301</v>
       </c>
       <c r="E11">
-        <v>268523.2135125632</v>
+        <v>5892535.894629083</v>
       </c>
       <c r="F11">
-        <v>14664492.91019593</v>
+        <v>1510980.102215496</v>
       </c>
       <c r="G11">
-        <v>1283865.690420536</v>
+        <v>672914.9854312863</v>
       </c>
       <c r="H11">
-        <v>2291928.485033227</v>
+        <v>789124.0733718706</v>
       </c>
       <c r="I11">
-        <v>2566951.565155469</v>
+        <v>1305455.613211726</v>
       </c>
       <c r="J11">
-        <v>101250535.8568643</v>
+        <v>1162746.022967929</v>
       </c>
       <c r="K11">
-        <v>221634.7384978858</v>
+        <v>29200048.67563367</v>
       </c>
       <c r="L11">
-        <v>10600374.90386141</v>
+        <v>77534846.87752986</v>
       </c>
       <c r="M11">
-        <v>9564102.695986835</v>
+        <v>24649774.96292023</v>
       </c>
       <c r="N11">
-        <v>434671.6336359707</v>
+        <v>50606640.12508412</v>
       </c>
       <c r="O11">
-        <v>1809438.880462296</v>
+        <v>3625308.230743362</v>
       </c>
       <c r="P11">
-        <v>1882352.217307418</v>
+        <v>1731689.567882742</v>
       </c>
       <c r="Q11">
-        <v>1350773.306942942</v>
+        <v>1207376.718423674</v>
       </c>
       <c r="R11">
-        <v>1661641.704292664</v>
+        <v>1853294.673478178</v>
       </c>
       <c r="S11">
-        <v>4585607.785919514</v>
+        <v>1133289.672364959</v>
       </c>
       <c r="T11">
-        <v>4230116.325283453</v>
+        <v>886308.4810561656</v>
       </c>
       <c r="U11">
-        <v>405826.5559824785</v>
+        <v>343523.2312747514</v>
       </c>
       <c r="V11">
-        <v>720962.5516526287</v>
+        <v>612385.4423330431</v>
       </c>
       <c r="W11">
-        <v>7819.794828953636</v>
+        <v>222976.0708144516</v>
       </c>
       <c r="X11">
-        <v>374215.0882531044</v>
+        <v>11598157.87504223</v>
       </c>
       <c r="Y11">
-        <v>5746.298594202456</v>
+        <v>1187190.000618297</v>
       </c>
       <c r="Z11">
-        <v>11851.50681837464</v>
+        <v>30890.45849957365</v>
       </c>
       <c r="AA11">
-        <v>4372378.722293203</v>
+        <v>38316715.43311731</v>
       </c>
       <c r="AB11">
-        <v>7411376.577619399</v>
+        <v>3771566.777464971</v>
       </c>
       <c r="AC11">
-        <v>3175845.930332114</v>
+        <v>93446699.58941035</v>
       </c>
       <c r="AD11">
-        <v>2056438.100543837</v>
+        <v>1119393.131718679</v>
       </c>
       <c r="AE11">
-        <v>17690577.98142006</v>
+        <v>902399.0069340774</v>
       </c>
       <c r="AF11">
-        <v>26570375.89452897</v>
+        <v>3423718.048087777</v>
       </c>
       <c r="AG11">
-        <v>4293691.15627494</v>
+        <v>1689394.852227529</v>
       </c>
       <c r="AH11">
-        <v>62758398.0137499</v>
+        <v>20038571.04643016</v>
       </c>
       <c r="AI11">
-        <v>2110927.252284118</v>
+        <v>1081501.352125247</v>
       </c>
       <c r="AJ11">
-        <v>4018715.525922684</v>
+        <v>8815370.377668936</v>
       </c>
       <c r="AK11">
-        <v>452843.9786962981</v>
+        <v>1120665.591924348</v>
       </c>
       <c r="AL11">
-        <v>1610023.701710331</v>
+        <v>1480868.31915558</v>
       </c>
       <c r="AM11">
-        <v>10133623.90452717</v>
+        <v>1934884.399806459</v>
       </c>
       <c r="AN11">
-        <v>305638.8647836441</v>
+        <v>193496.5345865712</v>
       </c>
       <c r="AO11">
-        <v>9179171.889795307</v>
+        <v>688421.5158651745</v>
       </c>
       <c r="AP11">
-        <v>17118431.48116735</v>
+        <v>2297286.026538903</v>
       </c>
     </row>
     <row r="12" spans="1:42">
       <c r="A12">
-        <v>5811001.396869995</v>
+        <v>85287358.93667054</v>
       </c>
       <c r="B12">
-        <v>930120.7269776359</v>
+        <v>4053624.454501016</v>
       </c>
       <c r="C12">
-        <v>663783.603233812</v>
+        <v>3011585.463813237</v>
       </c>
       <c r="D12">
-        <v>6490296.222064301</v>
+        <v>5602273.366453281</v>
       </c>
       <c r="E12">
-        <v>5892535.894629083</v>
+        <v>8251238.522112465</v>
       </c>
       <c r="F12">
-        <v>1510980.102215496</v>
+        <v>20881236.50930518</v>
       </c>
       <c r="G12">
-        <v>672914.9854312863</v>
+        <v>42363604.10914857</v>
       </c>
       <c r="H12">
-        <v>789124.0733718706</v>
+        <v>27655418.14049033</v>
       </c>
       <c r="I12">
-        <v>1305455.613211726</v>
+        <v>21404662.01680505</v>
       </c>
       <c r="J12">
-        <v>1162746.022967929</v>
+        <v>49944653.90140601</v>
       </c>
       <c r="K12">
-        <v>29200048.67563367</v>
+        <v>11536956.78528052</v>
       </c>
       <c r="L12">
-        <v>77534846.87752986</v>
+        <v>606173843.8175918</v>
       </c>
       <c r="M12">
-        <v>24649774.96292023</v>
+        <v>43500153.03050043</v>
       </c>
       <c r="N12">
-        <v>50606640.12508412</v>
+        <v>16014472.04479898</v>
       </c>
       <c r="O12">
-        <v>3625308.230743362</v>
+        <v>17699357.09539056</v>
       </c>
       <c r="P12">
-        <v>1731689.567882742</v>
+        <v>14869117.11690309</v>
       </c>
       <c r="Q12">
-        <v>1207376.718423674</v>
+        <v>14189245.21838561</v>
       </c>
       <c r="R12">
-        <v>1853294.673478178</v>
+        <v>39833246.45604486</v>
       </c>
       <c r="S12">
-        <v>1133289.672364959</v>
+        <v>50308633.75830343</v>
       </c>
       <c r="T12">
-        <v>886308.4810561656</v>
+        <v>33038189.51725047</v>
       </c>
       <c r="U12">
-        <v>343523.2312747514</v>
+        <v>3109379.477565927</v>
       </c>
       <c r="V12">
-        <v>612385.4423330431</v>
+        <v>8123514.42079676</v>
       </c>
       <c r="W12">
-        <v>222976.0708144516</v>
+        <v>303091.5617562736</v>
       </c>
       <c r="X12">
-        <v>11598157.87504223</v>
+        <v>257684.7951037209</v>
       </c>
       <c r="Y12">
-        <v>1187190.000618297</v>
+        <v>42492.10858499524</v>
       </c>
       <c r="Z12">
-        <v>30890.45849957365</v>
+        <v>2814979.201341046</v>
       </c>
       <c r="AA12">
-        <v>38316715.43311731</v>
+        <v>115578732.695238</v>
       </c>
       <c r="AB12">
-        <v>3771566.777464971</v>
+        <v>2989095.013661767</v>
       </c>
       <c r="AC12">
-        <v>93446699.58941035</v>
+        <v>9831007.616903523</v>
       </c>
       <c r="AD12">
-        <v>1119393.131718679</v>
+        <v>4891034.908380657</v>
       </c>
       <c r="AE12">
-        <v>902399.0069340774</v>
+        <v>1757913.721889968</v>
       </c>
       <c r="AF12">
-        <v>3423718.048087777</v>
+        <v>817112.0795695068</v>
       </c>
       <c r="AG12">
-        <v>1689394.852227529</v>
+        <v>678566.4960061575</v>
       </c>
       <c r="AH12">
-        <v>20038571.04643016</v>
+        <v>7306599.78878342</v>
       </c>
       <c r="AI12">
-        <v>1081501.352125247</v>
+        <v>14458016.82746051</v>
       </c>
       <c r="AJ12">
-        <v>8815370.377668936</v>
+        <v>20874380.02170011</v>
       </c>
       <c r="AK12">
-        <v>1120665.591924348</v>
+        <v>5595608.811655228</v>
       </c>
       <c r="AL12">
-        <v>1480868.31915558</v>
+        <v>16459874.14199323</v>
       </c>
       <c r="AM12">
-        <v>1934884.399806459</v>
+        <v>7774511.611490825</v>
       </c>
       <c r="AN12">
-        <v>193496.5345865712</v>
+        <v>142030059.4448236</v>
       </c>
       <c r="AO12">
-        <v>688421.5158651745</v>
+        <v>2525176.19124909</v>
       </c>
       <c r="AP12">
-        <v>2297286.026538903</v>
+        <v>2841168.232705667</v>
       </c>
     </row>
     <row r="13" spans="1:42">
       <c r="A13">
-        <v>85287358.93667054</v>
+        <v>466032.2115096968</v>
       </c>
       <c r="B13">
-        <v>4053624.454501016</v>
+        <v>562777.095418839</v>
       </c>
       <c r="C13">
-        <v>3011585.463813237</v>
+        <v>55362.36972239847</v>
       </c>
       <c r="D13">
-        <v>5602273.366453281</v>
+        <v>439969.5983090845</v>
       </c>
       <c r="E13">
-        <v>8251238.522112465</v>
+        <v>1759504.478384981</v>
       </c>
       <c r="F13">
-        <v>20881236.50930518</v>
+        <v>5602618.654129494</v>
       </c>
       <c r="G13">
-        <v>42363604.10914857</v>
+        <v>380826.0942310176</v>
       </c>
       <c r="H13">
-        <v>27655418.14049033</v>
+        <v>178669.2773010269</v>
       </c>
       <c r="I13">
-        <v>21404662.01680505</v>
+        <v>1889803.214908512</v>
       </c>
       <c r="J13">
-        <v>49944653.90140601</v>
+        <v>1023231.799527399</v>
       </c>
       <c r="K13">
-        <v>11536956.78528052</v>
+        <v>2834000.146159036</v>
       </c>
       <c r="L13">
-        <v>606173843.8175918</v>
+        <v>8041905.678041187</v>
       </c>
       <c r="M13">
-        <v>43500153.03050043</v>
+        <v>134630636.5425153</v>
       </c>
       <c r="N13">
-        <v>16014472.04479898</v>
+        <v>15874477.17477296</v>
       </c>
       <c r="O13">
-        <v>17699357.09539056</v>
+        <v>6708375.772814865</v>
       </c>
       <c r="P13">
-        <v>14869117.11690309</v>
+        <v>3262118.531536727</v>
       </c>
       <c r="Q13">
-        <v>14189245.21838561</v>
+        <v>3637021.050220438</v>
       </c>
       <c r="R13">
-        <v>39833246.45604486</v>
+        <v>11220055.75049529</v>
       </c>
       <c r="S13">
-        <v>50308633.75830343</v>
+        <v>17633255.8341456</v>
       </c>
       <c r="T13">
-        <v>33038189.51725047</v>
+        <v>15285058.40759911</v>
       </c>
       <c r="U13">
-        <v>3109379.477565927</v>
+        <v>2681451.31673154</v>
       </c>
       <c r="V13">
-        <v>8123514.42079676</v>
+        <v>390343.3593795467</v>
       </c>
       <c r="W13">
-        <v>303091.5617562736</v>
+        <v>61381.62201132489</v>
       </c>
       <c r="X13">
-        <v>257684.7951037209</v>
+        <v>1570268.09986687</v>
       </c>
       <c r="Y13">
-        <v>42492.10858499524</v>
+        <v>3585.632090586097</v>
       </c>
       <c r="Z13">
-        <v>2814979.201341046</v>
+        <v>12669.67188419946</v>
       </c>
       <c r="AA13">
-        <v>115578732.695238</v>
+        <v>467054475.3611555</v>
       </c>
       <c r="AB13">
-        <v>2989095.013661767</v>
+        <v>192678.2878239823</v>
       </c>
       <c r="AC13">
-        <v>9831007.616903523</v>
+        <v>280844.9332665341</v>
       </c>
       <c r="AD13">
-        <v>4891034.908380657</v>
+        <v>411756.8749141337</v>
       </c>
       <c r="AE13">
-        <v>1757913.721889968</v>
+        <v>88252.44711175795</v>
       </c>
       <c r="AF13">
-        <v>817112.0795695068</v>
+        <v>37675.54091001954</v>
       </c>
       <c r="AG13">
-        <v>678566.4960061575</v>
+        <v>27335.91999296295</v>
       </c>
       <c r="AH13">
-        <v>7306599.78878342</v>
+        <v>213837.9054957992</v>
       </c>
       <c r="AI13">
-        <v>14458016.82746051</v>
+        <v>1951886.541622542</v>
       </c>
       <c r="AJ13">
-        <v>20874380.02170011</v>
+        <v>156651.2495186011</v>
       </c>
       <c r="AK13">
-        <v>5595608.811655228</v>
+        <v>997328.343563304</v>
       </c>
       <c r="AL13">
-        <v>16459874.14199323</v>
+        <v>92798.94981955545</v>
       </c>
       <c r="AM13">
-        <v>7774511.611490825</v>
+        <v>1030863.370581336</v>
       </c>
       <c r="AN13">
-        <v>142030059.4448236</v>
+        <v>310454.1375825329</v>
       </c>
       <c r="AO13">
-        <v>2525176.19124909</v>
+        <v>3867.313328225923</v>
       </c>
       <c r="AP13">
-        <v>2841168.232705667</v>
+        <v>13986.60647611047</v>
       </c>
     </row>
     <row r="14" spans="1:42">
       <c r="A14">
-        <v>466032.2115096968</v>
+        <v>242076.7121582729</v>
       </c>
       <c r="B14">
-        <v>562777.095418839</v>
+        <v>5915244.948260859</v>
       </c>
       <c r="C14">
-        <v>55362.36972239847</v>
+        <v>1453108.750775032</v>
       </c>
       <c r="D14">
-        <v>439969.5983090845</v>
+        <v>1166054.511043412</v>
       </c>
       <c r="E14">
-        <v>1759504.478384981</v>
+        <v>1691829.534725784</v>
       </c>
       <c r="F14">
-        <v>5602618.654129494</v>
+        <v>480163.1931655558</v>
       </c>
       <c r="G14">
-        <v>380826.0942310176</v>
+        <v>284547.1424217813</v>
       </c>
       <c r="H14">
-        <v>178669.2773010269</v>
+        <v>222358.4546444724</v>
       </c>
       <c r="I14">
-        <v>1889803.214908512</v>
+        <v>3120934.398718653</v>
       </c>
       <c r="J14">
-        <v>1023231.799527399</v>
+        <v>20980739.47451445</v>
       </c>
       <c r="K14">
-        <v>2834000.146159036</v>
+        <v>130816.3669875252</v>
       </c>
       <c r="L14">
-        <v>8041905.678041187</v>
+        <v>14766422.51599497</v>
       </c>
       <c r="M14">
-        <v>134630636.5425153</v>
+        <v>20422251.97510613</v>
       </c>
       <c r="N14">
-        <v>15874477.17477296</v>
+        <v>326855808.5558699</v>
       </c>
       <c r="O14">
-        <v>6708375.772814865</v>
+        <v>148719050.0472316</v>
       </c>
       <c r="P14">
-        <v>3262118.531536727</v>
+        <v>69476886.55148028</v>
       </c>
       <c r="Q14">
-        <v>3637021.050220438</v>
+        <v>34162635.21395311</v>
       </c>
       <c r="R14">
-        <v>11220055.75049529</v>
+        <v>78795468.38279358</v>
       </c>
       <c r="S14">
-        <v>17633255.8341456</v>
+        <v>138442983.7730517</v>
       </c>
       <c r="T14">
-        <v>15285058.40759911</v>
+        <v>31534615.96579277</v>
       </c>
       <c r="U14">
-        <v>2681451.31673154</v>
+        <v>4432918.669345088</v>
       </c>
       <c r="V14">
-        <v>390343.3593795467</v>
+        <v>4416081.22864166</v>
       </c>
       <c r="W14">
-        <v>61381.62201132489</v>
+        <v>2243451.076215139</v>
       </c>
       <c r="X14">
-        <v>1570268.09986687</v>
+        <v>283258.9957798729</v>
       </c>
       <c r="Y14">
-        <v>3585.632090586097</v>
+        <v>61771.71111146577</v>
       </c>
       <c r="Z14">
-        <v>12669.67188419946</v>
+        <v>49742.10626338915</v>
       </c>
       <c r="AA14">
-        <v>467054475.3611555</v>
+        <v>281615235.4498467</v>
       </c>
       <c r="AB14">
-        <v>192678.2878239823</v>
+        <v>32033.64422128884</v>
       </c>
       <c r="AC14">
-        <v>280844.9332665341</v>
+        <v>508188.2237420903</v>
       </c>
       <c r="AD14">
-        <v>411756.8749141337</v>
+        <v>8235.684953134805</v>
       </c>
       <c r="AE14">
-        <v>88252.44711175795</v>
+        <v>6076.783295472972</v>
       </c>
       <c r="AF14">
-        <v>37675.54091001954</v>
+        <v>20.21835684476198</v>
       </c>
       <c r="AG14">
-        <v>27335.91999296295</v>
+        <v>1587.855240750966</v>
       </c>
       <c r="AH14">
-        <v>213837.9054957992</v>
+        <v>2329.474378747429</v>
       </c>
       <c r="AI14">
-        <v>1951886.541622542</v>
+        <v>272454.808156904</v>
       </c>
       <c r="AJ14">
-        <v>156651.2495186011</v>
+        <v>331769.6555189956</v>
       </c>
       <c r="AK14">
-        <v>997328.343563304</v>
+        <v>77217.77461317202</v>
       </c>
       <c r="AL14">
-        <v>92798.94981955545</v>
+        <v>148317.4247686425</v>
       </c>
       <c r="AM14">
-        <v>1030863.370581336</v>
+        <v>64755.68586554784</v>
       </c>
       <c r="AN14">
-        <v>310454.1375825329</v>
+        <v>617.0015922628331</v>
       </c>
       <c r="AO14">
-        <v>3867.313328225923</v>
+        <v>1072.228346982716</v>
       </c>
       <c r="AP14">
-        <v>13986.60647611047</v>
+        <v>237.4035214904808</v>
       </c>
     </row>
     <row r="15" spans="1:42">
       <c r="A15">
-        <v>242076.7121582729</v>
+        <v>760886.1007152103</v>
       </c>
       <c r="B15">
-        <v>5915244.948260859</v>
+        <v>6321724.747617671</v>
       </c>
       <c r="C15">
-        <v>1453108.750775032</v>
+        <v>66190.28740063439</v>
       </c>
       <c r="D15">
-        <v>1166054.511043412</v>
+        <v>2501224.167790764</v>
       </c>
       <c r="E15">
-        <v>1691829.534725784</v>
+        <v>2541756.173349163</v>
       </c>
       <c r="F15">
-        <v>480163.1931655558</v>
+        <v>4101317.321314286</v>
       </c>
       <c r="G15">
-        <v>284547.1424217813</v>
+        <v>1006442.688043104</v>
       </c>
       <c r="H15">
-        <v>222358.4546444724</v>
+        <v>1325955.645980265</v>
       </c>
       <c r="I15">
-        <v>3120934.398718653</v>
+        <v>6195800.387090794</v>
       </c>
       <c r="J15">
-        <v>20980739.47451445</v>
+        <v>3302206.72439817</v>
       </c>
       <c r="K15">
-        <v>130816.3669875252</v>
+        <v>233700.9413299859</v>
       </c>
       <c r="L15">
-        <v>14766422.51599497</v>
+        <v>9535783.824431323</v>
       </c>
       <c r="M15">
-        <v>20422251.97510613</v>
+        <v>18304391.01044416</v>
       </c>
       <c r="N15">
-        <v>326855808.5558699</v>
+        <v>2342878.25785976</v>
       </c>
       <c r="O15">
-        <v>148719050.0472316</v>
+        <v>66120826.95538706</v>
       </c>
       <c r="P15">
-        <v>69476886.55148028</v>
+        <v>22881781.76902847</v>
       </c>
       <c r="Q15">
-        <v>34162635.21395311</v>
+        <v>15115210.37367515</v>
       </c>
       <c r="R15">
-        <v>78795468.38279358</v>
+        <v>21737996.93172596</v>
       </c>
       <c r="S15">
-        <v>138442983.7730517</v>
+        <v>23966286.61890138</v>
       </c>
       <c r="T15">
-        <v>31534615.96579277</v>
+        <v>13421084.6724011</v>
       </c>
       <c r="U15">
-        <v>4432918.669345088</v>
+        <v>3071319.602145369</v>
       </c>
       <c r="V15">
-        <v>4416081.22864166</v>
+        <v>1298003.153600804</v>
       </c>
       <c r="W15">
-        <v>2243451.076215139</v>
+        <v>1405799.926081375</v>
       </c>
       <c r="X15">
-        <v>283258.9957798729</v>
+        <v>234237.1266958512</v>
       </c>
       <c r="Y15">
-        <v>61771.71111146577</v>
+        <v>19117.39828023569</v>
       </c>
       <c r="Z15">
-        <v>49742.10626338915</v>
+        <v>733916.5511462514</v>
       </c>
       <c r="AA15">
-        <v>281615235.4498467</v>
+        <v>127888264.8945648</v>
       </c>
       <c r="AB15">
-        <v>32033.64422128884</v>
+        <v>305159.6128764842</v>
       </c>
       <c r="AC15">
-        <v>508188.2237420903</v>
+        <v>1881665.826986778</v>
       </c>
       <c r="AD15">
-        <v>8235.684953134805</v>
+        <v>431935.6102290492</v>
       </c>
       <c r="AE15">
-        <v>6076.783295472972</v>
+        <v>399550.2910378041</v>
       </c>
       <c r="AF15">
-        <v>20.21835684476198</v>
+        <v>147040.3355905427</v>
       </c>
       <c r="AG15">
-        <v>1587.855240750966</v>
+        <v>1069831.140864786</v>
       </c>
       <c r="AH15">
-        <v>2329.474378747429</v>
+        <v>22040649.37595182</v>
       </c>
       <c r="AI15">
-        <v>272454.808156904</v>
+        <v>4110670.395429452</v>
       </c>
       <c r="AJ15">
-        <v>331769.6555189956</v>
+        <v>10261727.05019031</v>
       </c>
       <c r="AK15">
-        <v>77217.77461317202</v>
+        <v>684458.1391017616</v>
       </c>
       <c r="AL15">
-        <v>148317.4247686425</v>
+        <v>3243386.714743407</v>
       </c>
       <c r="AM15">
-        <v>64755.68586554784</v>
+        <v>718568.9782054239</v>
       </c>
       <c r="AN15">
-        <v>617.0015922628331</v>
+        <v>40459.48151679254</v>
       </c>
       <c r="AO15">
-        <v>1072.228346982716</v>
+        <v>197263.5212928951</v>
       </c>
       <c r="AP15">
-        <v>237.4035214904808</v>
+        <v>721539.8563030545</v>
       </c>
     </row>
     <row r="16" spans="1:42">
       <c r="A16">
-        <v>760886.1007152103</v>
+        <v>837854.5791646312</v>
       </c>
       <c r="B16">
-        <v>6321724.747617671</v>
+        <v>3469896.178277634</v>
       </c>
       <c r="C16">
-        <v>66190.28740063439</v>
+        <v>933167.9676096579</v>
       </c>
       <c r="D16">
-        <v>2501224.167790764</v>
+        <v>2043668.432123507</v>
       </c>
       <c r="E16">
-        <v>2541756.173349163</v>
+        <v>1563140.873278935</v>
       </c>
       <c r="F16">
-        <v>4101317.321314286</v>
+        <v>1732952.594429005</v>
       </c>
       <c r="G16">
-        <v>1006442.688043104</v>
+        <v>1530927.419840207</v>
       </c>
       <c r="H16">
-        <v>1325955.645980265</v>
+        <v>578866.2403647045</v>
       </c>
       <c r="I16">
-        <v>6195800.387090794</v>
+        <v>1436393.672076586</v>
       </c>
       <c r="J16">
-        <v>3302206.72439817</v>
+        <v>1567638.549037783</v>
       </c>
       <c r="K16">
-        <v>233700.9413299859</v>
+        <v>1805896.968105296</v>
       </c>
       <c r="L16">
-        <v>9535783.824431323</v>
+        <v>6669588.254705832</v>
       </c>
       <c r="M16">
-        <v>18304391.01044416</v>
+        <v>13800479.6000072</v>
       </c>
       <c r="N16">
-        <v>2342878.25785976</v>
+        <v>10114447.59170466</v>
       </c>
       <c r="O16">
-        <v>66120826.95538706</v>
+        <v>11754866.5128533</v>
       </c>
       <c r="P16">
-        <v>22881781.76902847</v>
+        <v>100359310.5469724</v>
       </c>
       <c r="Q16">
-        <v>15115210.37367515</v>
+        <v>33975969.52912344</v>
       </c>
       <c r="R16">
-        <v>21737996.93172596</v>
+        <v>38561754.2281728</v>
       </c>
       <c r="S16">
-        <v>23966286.61890138</v>
+        <v>20387347.67603036</v>
       </c>
       <c r="T16">
-        <v>13421084.6724011</v>
+        <v>5350454.375200677</v>
       </c>
       <c r="U16">
-        <v>3071319.602145369</v>
+        <v>2444293.351930601</v>
       </c>
       <c r="V16">
-        <v>1298003.153600804</v>
+        <v>895626.9257501154</v>
       </c>
       <c r="W16">
-        <v>1405799.926081375</v>
+        <v>872918.8976426462</v>
       </c>
       <c r="X16">
-        <v>234237.1266958512</v>
+        <v>2196485.203235732</v>
       </c>
       <c r="Y16">
-        <v>19117.39828023569</v>
+        <v>75981.4769865462</v>
       </c>
       <c r="Z16">
-        <v>733916.5511462514</v>
+        <v>94031.6730308111</v>
       </c>
       <c r="AA16">
-        <v>127888264.8945648</v>
+        <v>14235407.86215511</v>
       </c>
       <c r="AB16">
-        <v>305159.6128764842</v>
+        <v>257493.7052430703</v>
       </c>
       <c r="AC16">
-        <v>1881665.826986778</v>
+        <v>7080039.412746988</v>
       </c>
       <c r="AD16">
-        <v>431935.6102290492</v>
+        <v>316433.9940596283</v>
       </c>
       <c r="AE16">
-        <v>399550.2910378041</v>
+        <v>318564.1612161995</v>
       </c>
       <c r="AF16">
-        <v>147040.3355905427</v>
+        <v>930374.5246301672</v>
       </c>
       <c r="AG16">
-        <v>1069831.140864786</v>
+        <v>230315.2456064615</v>
       </c>
       <c r="AH16">
-        <v>22040649.37595182</v>
+        <v>242202.5901505609</v>
       </c>
       <c r="AI16">
-        <v>4110670.395429452</v>
+        <v>177113.9712004487</v>
       </c>
       <c r="AJ16">
-        <v>10261727.05019031</v>
+        <v>369401.9438349396</v>
       </c>
       <c r="AK16">
-        <v>684458.1391017616</v>
+        <v>197954.2171718988</v>
       </c>
       <c r="AL16">
-        <v>3243386.714743407</v>
+        <v>112392.6688014755</v>
       </c>
       <c r="AM16">
-        <v>718568.9782054239</v>
+        <v>579503.5489431622</v>
       </c>
       <c r="AN16">
-        <v>40459.48151679254</v>
+        <v>101258.8872372372</v>
       </c>
       <c r="AO16">
-        <v>197263.5212928951</v>
+        <v>45734.27195311706</v>
       </c>
       <c r="AP16">
-        <v>721539.8563030545</v>
+        <v>60189.91079466433</v>
       </c>
     </row>
     <row r="17" spans="1:42">
       <c r="A17">
-        <v>837854.5791646312</v>
+        <v>7681559.528491072</v>
       </c>
       <c r="B17">
-        <v>3469896.178277634</v>
+        <v>3855577.758508579</v>
       </c>
       <c r="C17">
-        <v>933167.9676096579</v>
+        <v>2790630.244822204</v>
       </c>
       <c r="D17">
-        <v>2043668.432123507</v>
+        <v>2516766.824298096</v>
       </c>
       <c r="E17">
-        <v>1563140.873278935</v>
+        <v>4336379.821833278</v>
       </c>
       <c r="F17">
-        <v>1732952.594429005</v>
+        <v>802654.707623048</v>
       </c>
       <c r="G17">
-        <v>1530927.419840207</v>
+        <v>916693.101178179</v>
       </c>
       <c r="H17">
-        <v>578866.2403647045</v>
+        <v>776613.9430418336</v>
       </c>
       <c r="I17">
-        <v>1436393.672076586</v>
+        <v>789515.2351311457</v>
       </c>
       <c r="J17">
-        <v>1567638.549037783</v>
+        <v>2359771.237808095</v>
       </c>
       <c r="K17">
-        <v>1805896.968105296</v>
+        <v>477071.3206572204</v>
       </c>
       <c r="L17">
-        <v>6669588.254705832</v>
+        <v>4899012.24329723</v>
       </c>
       <c r="M17">
-        <v>13800479.6000072</v>
+        <v>3465088.010793708</v>
       </c>
       <c r="N17">
-        <v>10114447.59170466</v>
+        <v>7525987.862189158</v>
       </c>
       <c r="O17">
-        <v>11754866.5128533</v>
+        <v>3024874.525243011</v>
       </c>
       <c r="P17">
-        <v>100359310.5469724</v>
+        <v>4474343.59952464</v>
       </c>
       <c r="Q17">
-        <v>33975969.52912344</v>
+        <v>43551216.95115529</v>
       </c>
       <c r="R17">
-        <v>38561754.2281728</v>
+        <v>5503724.763832041</v>
       </c>
       <c r="S17">
-        <v>20387347.67603036</v>
+        <v>4249616.037270242</v>
       </c>
       <c r="T17">
-        <v>5350454.375200677</v>
+        <v>18018210.04352856</v>
       </c>
       <c r="U17">
-        <v>2444293.351930601</v>
+        <v>1351790.243395097</v>
       </c>
       <c r="V17">
-        <v>895626.9257501154</v>
+        <v>143717.428512522</v>
       </c>
       <c r="W17">
-        <v>872918.8976426462</v>
+        <v>325958.8790710313</v>
       </c>
       <c r="X17">
-        <v>2196485.203235732</v>
+        <v>191191.2207341758</v>
       </c>
       <c r="Y17">
-        <v>75981.4769865462</v>
+        <v>3943.505654574767</v>
       </c>
       <c r="Z17">
-        <v>94031.6730308111</v>
+        <v>103874.9889780582</v>
       </c>
       <c r="AA17">
-        <v>14235407.86215511</v>
+        <v>13017368.3284817</v>
       </c>
       <c r="AB17">
-        <v>257493.7052430703</v>
+        <v>53384.43219385966</v>
       </c>
       <c r="AC17">
-        <v>7080039.412746988</v>
+        <v>1285763.691433053</v>
       </c>
       <c r="AD17">
-        <v>316433.9940596283</v>
+        <v>234375.0678091684</v>
       </c>
       <c r="AE17">
-        <v>318564.1612161995</v>
+        <v>129007.5909208222</v>
       </c>
       <c r="AF17">
-        <v>930374.5246301672</v>
+        <v>1992117.278348452</v>
       </c>
       <c r="AG17">
-        <v>230315.2456064615</v>
+        <v>8948.929625224611</v>
       </c>
       <c r="AH17">
-        <v>242202.5901505609</v>
+        <v>386609.9293674748</v>
       </c>
       <c r="AI17">
-        <v>177113.9712004487</v>
+        <v>31028.84621977995</v>
       </c>
       <c r="AJ17">
-        <v>369401.9438349396</v>
+        <v>163036.3051142411</v>
       </c>
       <c r="AK17">
-        <v>197954.2171718988</v>
+        <v>114404.9828563179</v>
       </c>
       <c r="AL17">
-        <v>112392.6688014755</v>
+        <v>191955.1246461713</v>
       </c>
       <c r="AM17">
-        <v>579503.5489431622</v>
+        <v>122834.5128745937</v>
       </c>
       <c r="AN17">
-        <v>101258.8872372372</v>
+        <v>15489380.19257096</v>
       </c>
       <c r="AO17">
-        <v>45734.27195311706</v>
+        <v>15968.94273882168</v>
       </c>
       <c r="AP17">
-        <v>60189.91079466433</v>
+        <v>13522.91693464309</v>
       </c>
     </row>
     <row r="18" spans="1:42">
       <c r="A18">
-        <v>7681559.528491072</v>
+        <v>2814964.815665821</v>
       </c>
       <c r="B18">
-        <v>3855577.758508579</v>
+        <v>354173.0569227301</v>
       </c>
       <c r="C18">
-        <v>2790630.244822204</v>
+        <v>28460.67335700966</v>
       </c>
       <c r="D18">
-        <v>2516766.824298096</v>
+        <v>724425.1175914611</v>
       </c>
       <c r="E18">
-        <v>4336379.821833278</v>
+        <v>923698.3587914079</v>
       </c>
       <c r="F18">
-        <v>802654.707623048</v>
+        <v>301647.8652956057</v>
       </c>
       <c r="G18">
-        <v>916693.101178179</v>
+        <v>138370.939793403</v>
       </c>
       <c r="H18">
-        <v>776613.9430418336</v>
+        <v>203124.2363873949</v>
       </c>
       <c r="I18">
-        <v>789515.2351311457</v>
+        <v>189262.1520090662</v>
       </c>
       <c r="J18">
-        <v>2359771.237808095</v>
+        <v>214207.6748582009</v>
       </c>
       <c r="K18">
-        <v>477071.3206572204</v>
+        <v>32742.49914357939</v>
       </c>
       <c r="L18">
-        <v>4899012.24329723</v>
+        <v>730887.904898986</v>
       </c>
       <c r="M18">
-        <v>3465088.010793708</v>
+        <v>2289905.341208655</v>
       </c>
       <c r="N18">
-        <v>7525987.862189158</v>
+        <v>289560.8971427046</v>
       </c>
       <c r="O18">
-        <v>3024874.525243011</v>
+        <v>624915.0501980595</v>
       </c>
       <c r="P18">
-        <v>4474343.59952464</v>
+        <v>9200244.878123814</v>
       </c>
       <c r="Q18">
-        <v>43551216.95115529</v>
+        <v>11657651.35596776</v>
       </c>
       <c r="R18">
-        <v>5503724.763832041</v>
+        <v>281261328.5262786</v>
       </c>
       <c r="S18">
-        <v>4249616.037270242</v>
+        <v>1546866.287136471</v>
       </c>
       <c r="T18">
-        <v>18018210.04352856</v>
+        <v>368042.1805733033</v>
       </c>
       <c r="U18">
-        <v>1351790.243395097</v>
+        <v>392019.078641989</v>
       </c>
       <c r="V18">
-        <v>143717.428512522</v>
+        <v>60797.92518203244</v>
       </c>
       <c r="W18">
-        <v>325958.8790710313</v>
+        <v>2447246.627918087</v>
       </c>
       <c r="X18">
-        <v>191191.2207341758</v>
+        <v>50241.77405521237</v>
       </c>
       <c r="Y18">
-        <v>3943.505654574767</v>
+        <v>6783.478368594516</v>
       </c>
       <c r="Z18">
-        <v>103874.9889780582</v>
+        <v>8568.933953596694</v>
       </c>
       <c r="AA18">
-        <v>13017368.3284817</v>
+        <v>2108488.680347592</v>
       </c>
       <c r="AB18">
-        <v>53384.43219385966</v>
+        <v>168523.8198272093</v>
       </c>
       <c r="AC18">
-        <v>1285763.691433053</v>
+        <v>81205896.26871563</v>
       </c>
       <c r="AD18">
-        <v>234375.0678091684</v>
+        <v>497399.2803445654</v>
       </c>
       <c r="AE18">
-        <v>129007.5909208222</v>
+        <v>194005.6414444498</v>
       </c>
       <c r="AF18">
-        <v>1992117.278348452</v>
+        <v>472847.2832265736</v>
       </c>
       <c r="AG18">
-        <v>8948.929625224611</v>
+        <v>26371.10969461358</v>
       </c>
       <c r="AH18">
-        <v>386609.9293674748</v>
+        <v>30852886.72295874</v>
       </c>
       <c r="AI18">
-        <v>31028.84621977995</v>
+        <v>367268.9584205372</v>
       </c>
       <c r="AJ18">
-        <v>163036.3051142411</v>
+        <v>2706205.143156339</v>
       </c>
       <c r="AK18">
-        <v>114404.9828563179</v>
+        <v>1674532.190675646</v>
       </c>
       <c r="AL18">
-        <v>191955.1246461713</v>
+        <v>11736339.04580232</v>
       </c>
       <c r="AM18">
-        <v>122834.5128745937</v>
+        <v>121674.5385199276</v>
       </c>
       <c r="AN18">
-        <v>15489380.19257096</v>
+        <v>286763.1841836666</v>
       </c>
       <c r="AO18">
-        <v>15968.94273882168</v>
+        <v>120927.2925271588</v>
       </c>
       <c r="AP18">
-        <v>13522.91693464309</v>
+        <v>2896806.309675416</v>
       </c>
     </row>
     <row r="19" spans="1:42">
       <c r="A19">
-        <v>2814964.815665821</v>
+        <v>196902.6197220738</v>
       </c>
       <c r="B19">
-        <v>354173.0569227301</v>
+        <v>989068.613524843</v>
       </c>
       <c r="C19">
-        <v>28460.67335700966</v>
+        <v>148518.3004669636</v>
       </c>
       <c r="D19">
-        <v>724425.1175914611</v>
+        <v>614302.7798473447</v>
       </c>
       <c r="E19">
-        <v>923698.3587914079</v>
+        <v>870503.1122765065</v>
       </c>
       <c r="F19">
-        <v>301647.8652956057</v>
+        <v>699613.2842081552</v>
       </c>
       <c r="G19">
-        <v>138370.939793403</v>
+        <v>293950.9414504507</v>
       </c>
       <c r="H19">
-        <v>203124.2363873949</v>
+        <v>187157.3562536054</v>
       </c>
       <c r="I19">
-        <v>189262.1520090662</v>
+        <v>273699.5049156278</v>
       </c>
       <c r="J19">
-        <v>214207.6748582009</v>
+        <v>1757184.687109648</v>
       </c>
       <c r="K19">
-        <v>32742.49914357939</v>
+        <v>121010.9703747322</v>
       </c>
       <c r="L19">
-        <v>730887.904898986</v>
+        <v>2175380.774283452</v>
       </c>
       <c r="M19">
-        <v>2289905.341208655</v>
+        <v>1588178.423447548</v>
       </c>
       <c r="N19">
-        <v>289560.8971427046</v>
+        <v>896300.4693393917</v>
       </c>
       <c r="O19">
-        <v>624915.0501980595</v>
+        <v>1196215.825314611</v>
       </c>
       <c r="P19">
-        <v>9200244.878123814</v>
+        <v>29355462.14102894</v>
       </c>
       <c r="Q19">
-        <v>11657651.35596776</v>
+        <v>17009982.6538753</v>
       </c>
       <c r="R19">
-        <v>281261328.5262786</v>
+        <v>33010241.52101667</v>
       </c>
       <c r="S19">
-        <v>1546866.287136471</v>
+        <v>105426458.6858394</v>
       </c>
       <c r="T19">
-        <v>368042.1805733033</v>
+        <v>51625784.18971588</v>
       </c>
       <c r="U19">
-        <v>392019.078641989</v>
+        <v>5502536.607524896</v>
       </c>
       <c r="V19">
-        <v>60797.92518203244</v>
+        <v>607866.6495535172</v>
       </c>
       <c r="W19">
-        <v>2447246.627918087</v>
+        <v>1454787.228016957</v>
       </c>
       <c r="X19">
-        <v>50241.77405521237</v>
+        <v>38357693.63322858</v>
       </c>
       <c r="Y19">
-        <v>6783.478368594516</v>
+        <v>41053.97558934432</v>
       </c>
       <c r="Z19">
-        <v>8568.933953596694</v>
+        <v>51829.37741525574</v>
       </c>
       <c r="AA19">
-        <v>2108488.680347592</v>
+        <v>87600537.8784091</v>
       </c>
       <c r="AB19">
-        <v>168523.8198272093</v>
+        <v>10615574.04037161</v>
       </c>
       <c r="AC19">
-        <v>81205896.26871563</v>
+        <v>3734249.280384579</v>
       </c>
       <c r="AD19">
-        <v>497399.2803445654</v>
+        <v>535724.6118535134</v>
       </c>
       <c r="AE19">
-        <v>194005.6414444498</v>
+        <v>8903220.174406135</v>
       </c>
       <c r="AF19">
-        <v>472847.2832265736</v>
+        <v>149012.8733153907</v>
       </c>
       <c r="AG19">
-        <v>26371.10969461358</v>
+        <v>52991.07124255499</v>
       </c>
       <c r="AH19">
-        <v>30852886.72295874</v>
+        <v>12816230.32164913</v>
       </c>
       <c r="AI19">
-        <v>367268.9584205372</v>
+        <v>5717133.135756628</v>
       </c>
       <c r="AJ19">
-        <v>2706205.143156339</v>
+        <v>8334155.56259381</v>
       </c>
       <c r="AK19">
-        <v>1674532.190675646</v>
+        <v>993368.395092979</v>
       </c>
       <c r="AL19">
-        <v>11736339.04580232</v>
+        <v>3126847.630338513</v>
       </c>
       <c r="AM19">
-        <v>121674.5385199276</v>
+        <v>93987.22729875277</v>
       </c>
       <c r="AN19">
-        <v>286763.1841836666</v>
+        <v>511056.4798565481</v>
       </c>
       <c r="AO19">
-        <v>120927.2925271588</v>
+        <v>100482.9374040821</v>
       </c>
       <c r="AP19">
-        <v>2896806.309675416</v>
+        <v>1519442.528641528</v>
       </c>
     </row>
     <row r="20" spans="1:42">
       <c r="A20">
-        <v>196902.6197220738</v>
+        <v>289046.152386357</v>
       </c>
       <c r="B20">
-        <v>989068.613524843</v>
+        <v>295741.4804561574</v>
       </c>
       <c r="C20">
-        <v>148518.3004669636</v>
+        <v>22305.88784722485</v>
       </c>
       <c r="D20">
-        <v>614302.7798473447</v>
+        <v>20167.02903267862</v>
       </c>
       <c r="E20">
-        <v>870503.1122765065</v>
+        <v>64502.15286726064</v>
       </c>
       <c r="F20">
-        <v>699613.2842081552</v>
+        <v>701288.1110370599</v>
       </c>
       <c r="G20">
-        <v>293950.9414504507</v>
+        <v>105632.0681018693</v>
       </c>
       <c r="H20">
-        <v>187157.3562536054</v>
+        <v>115697.9936575557</v>
       </c>
       <c r="I20">
-        <v>273699.5049156278</v>
+        <v>101998.3233260375</v>
       </c>
       <c r="J20">
-        <v>1757184.687109648</v>
+        <v>2358479.912708079</v>
       </c>
       <c r="K20">
-        <v>121010.9703747322</v>
+        <v>71636.56777588777</v>
       </c>
       <c r="L20">
-        <v>2175380.774283452</v>
+        <v>2030077.260414712</v>
       </c>
       <c r="M20">
-        <v>1588178.423447548</v>
+        <v>621505.0116467796</v>
       </c>
       <c r="N20">
-        <v>896300.4693393917</v>
+        <v>698746.3052522397</v>
       </c>
       <c r="O20">
-        <v>1196215.825314611</v>
+        <v>722468.4187666764</v>
       </c>
       <c r="P20">
-        <v>29355462.14102894</v>
+        <v>26392308.18291713</v>
       </c>
       <c r="Q20">
-        <v>17009982.6538753</v>
+        <v>16411585.55848513</v>
       </c>
       <c r="R20">
-        <v>33010241.52101667</v>
+        <v>17664650.14673115</v>
       </c>
       <c r="S20">
-        <v>105426458.6858394</v>
+        <v>41552142.98399917</v>
       </c>
       <c r="T20">
-        <v>51625784.18971588</v>
+        <v>536022368.1585829</v>
       </c>
       <c r="U20">
-        <v>5502536.607524896</v>
+        <v>17344933.22819982</v>
       </c>
       <c r="V20">
-        <v>607866.6495535172</v>
+        <v>853295.2318505706</v>
       </c>
       <c r="W20">
-        <v>1454787.228016957</v>
+        <v>746230.6764045336</v>
       </c>
       <c r="X20">
-        <v>38357693.63322858</v>
+        <v>1190568.211144632</v>
       </c>
       <c r="Y20">
-        <v>41053.97558934432</v>
+        <v>24220.19316850918</v>
       </c>
       <c r="Z20">
-        <v>51829.37741525574</v>
+        <v>27822.18525906163</v>
       </c>
       <c r="AA20">
-        <v>87600537.8784091</v>
+        <v>7953353.50610179</v>
       </c>
       <c r="AB20">
-        <v>10615574.04037161</v>
+        <v>6682643.338789222</v>
       </c>
       <c r="AC20">
-        <v>3734249.280384579</v>
+        <v>4694342.031943104</v>
       </c>
       <c r="AD20">
-        <v>535724.6118535134</v>
+        <v>1357341.946139988</v>
       </c>
       <c r="AE20">
-        <v>8903220.174406135</v>
+        <v>40422669.7892269</v>
       </c>
       <c r="AF20">
-        <v>149012.8733153907</v>
+        <v>1958111.164907432</v>
       </c>
       <c r="AG20">
-        <v>52991.07124255499</v>
+        <v>411557.6677899061</v>
       </c>
       <c r="AH20">
-        <v>12816230.32164913</v>
+        <v>19972799.56684945</v>
       </c>
       <c r="AI20">
-        <v>5717133.135756628</v>
+        <v>6095634.522236732</v>
       </c>
       <c r="AJ20">
-        <v>8334155.56259381</v>
+        <v>22010709.03492248</v>
       </c>
       <c r="AK20">
-        <v>993368.395092979</v>
+        <v>893343.2557075892</v>
       </c>
       <c r="AL20">
-        <v>3126847.630338513</v>
+        <v>10634976.20494352</v>
       </c>
       <c r="AM20">
-        <v>93987.22729875277</v>
+        <v>841887.010528625</v>
       </c>
       <c r="AN20">
-        <v>511056.4798565481</v>
+        <v>999563.0181762356</v>
       </c>
       <c r="AO20">
-        <v>100482.9374040821</v>
+        <v>870603.3493433258</v>
       </c>
       <c r="AP20">
-        <v>1519442.528641528</v>
+        <v>3947813.25307109</v>
       </c>
     </row>
     <row r="21" spans="1:42">
       <c r="A21">
-        <v>289046.152386357</v>
+        <v>38300.32792530094</v>
       </c>
       <c r="B21">
-        <v>295741.4804561574</v>
+        <v>65387.49242880701</v>
       </c>
       <c r="C21">
-        <v>22305.88784722485</v>
+        <v>1174920.726484795</v>
       </c>
       <c r="D21">
-        <v>20167.02903267862</v>
+        <v>118973.8582645474</v>
       </c>
       <c r="E21">
-        <v>64502.15286726064</v>
+        <v>323935.9019342708</v>
       </c>
       <c r="F21">
-        <v>701288.1110370599</v>
+        <v>293377.2081812161</v>
       </c>
       <c r="G21">
-        <v>105632.0681018693</v>
+        <v>24284.78500601049</v>
       </c>
       <c r="H21">
-        <v>115697.9936575557</v>
+        <v>177471.23973618</v>
       </c>
       <c r="I21">
-        <v>101998.3233260375</v>
+        <v>14282.23187852248</v>
       </c>
       <c r="J21">
-        <v>2358479.912708079</v>
+        <v>132997.2291441095</v>
       </c>
       <c r="K21">
-        <v>71636.56777588777</v>
+        <v>609098.3377591997</v>
       </c>
       <c r="L21">
-        <v>2030077.260414712</v>
+        <v>716143.1225945075</v>
       </c>
       <c r="M21">
-        <v>621505.0116467796</v>
+        <v>707613.6492416173</v>
       </c>
       <c r="N21">
-        <v>698746.3052522397</v>
+        <v>368111.2419482399</v>
       </c>
       <c r="O21">
-        <v>722468.4187666764</v>
+        <v>160949.1448242434</v>
       </c>
       <c r="P21">
-        <v>26392308.18291713</v>
+        <v>3080334.568323747</v>
       </c>
       <c r="Q21">
-        <v>16411585.55848513</v>
+        <v>3778426.044265736</v>
       </c>
       <c r="R21">
-        <v>17664650.14673115</v>
+        <v>6658032.383543924</v>
       </c>
       <c r="S21">
-        <v>41552142.98399917</v>
+        <v>4514060.456720164</v>
       </c>
       <c r="T21">
-        <v>536022368.1585829</v>
+        <v>5981621.732276457</v>
       </c>
       <c r="U21">
-        <v>17344933.22819982</v>
+        <v>14887926.81820779</v>
       </c>
       <c r="V21">
-        <v>853295.2318505706</v>
+        <v>264928.6763627924</v>
       </c>
       <c r="W21">
-        <v>746230.6764045336</v>
+        <v>230589.6318967369</v>
       </c>
       <c r="X21">
-        <v>1190568.211144632</v>
+        <v>15450550.2562655</v>
       </c>
       <c r="Y21">
-        <v>24220.19316850918</v>
+        <v>81443.51217424324</v>
       </c>
       <c r="Z21">
-        <v>27822.18525906163</v>
+        <v>66753.19594776852</v>
       </c>
       <c r="AA21">
-        <v>7953353.50610179</v>
+        <v>1986675.298549907</v>
       </c>
       <c r="AB21">
-        <v>6682643.338789222</v>
+        <v>11897.28078272354</v>
       </c>
       <c r="AC21">
-        <v>4694342.031943104</v>
+        <v>117312.4224737703</v>
       </c>
       <c r="AD21">
-        <v>1357341.946139988</v>
+        <v>10062.47763736081</v>
       </c>
       <c r="AE21">
-        <v>40422669.7892269</v>
+        <v>910398.7256460837</v>
       </c>
       <c r="AF21">
-        <v>1958111.164907432</v>
+        <v>21402.57447321838</v>
       </c>
       <c r="AG21">
-        <v>411557.6677899061</v>
+        <v>12816.24685672856</v>
       </c>
       <c r="AH21">
-        <v>19972799.56684945</v>
+        <v>148648.0778552581</v>
       </c>
       <c r="AI21">
-        <v>6095634.522236732</v>
+        <v>7331204.061628177</v>
       </c>
       <c r="AJ21">
-        <v>22010709.03492248</v>
+        <v>17567053.96082288</v>
       </c>
       <c r="AK21">
-        <v>893343.2557075892</v>
+        <v>383882.2608767953</v>
       </c>
       <c r="AL21">
-        <v>10634976.20494352</v>
+        <v>1038954.210710807</v>
       </c>
       <c r="AM21">
-        <v>841887.010528625</v>
+        <v>4249993.413858357</v>
       </c>
       <c r="AN21">
-        <v>999563.0181762356</v>
+        <v>302300.5018012894</v>
       </c>
       <c r="AO21">
-        <v>870603.3493433258</v>
+        <v>294311.55306915</v>
       </c>
       <c r="AP21">
-        <v>3947813.25307109</v>
+        <v>223900.5354763409</v>
       </c>
     </row>
     <row r="22" spans="1:42">
       <c r="A22">
-        <v>38300.32792530094</v>
+        <v>64019.25194632697</v>
       </c>
       <c r="B22">
-        <v>65387.49242880701</v>
+        <v>342831.8487300452</v>
       </c>
       <c r="C22">
-        <v>1174920.726484795</v>
+        <v>111989.8219766011</v>
       </c>
       <c r="D22">
-        <v>118973.8582645474</v>
+        <v>99320.73937943406</v>
       </c>
       <c r="E22">
-        <v>323935.9019342708</v>
+        <v>140097.7023732936</v>
       </c>
       <c r="F22">
-        <v>293377.2081812161</v>
+        <v>543465.5661743988</v>
       </c>
       <c r="G22">
-        <v>24284.78500601049</v>
+        <v>220138.3064576226</v>
       </c>
       <c r="H22">
-        <v>177471.23973618</v>
+        <v>1241231.982936341</v>
       </c>
       <c r="I22">
-        <v>14282.23187852248</v>
+        <v>178992.0077589103</v>
       </c>
       <c r="J22">
-        <v>132997.2291441095</v>
+        <v>13268495.71420878</v>
       </c>
       <c r="K22">
-        <v>609098.3377591997</v>
+        <v>221021.5381682494</v>
       </c>
       <c r="L22">
-        <v>716143.1225945075</v>
+        <v>3995752.966743537</v>
       </c>
       <c r="M22">
-        <v>707613.6492416173</v>
+        <v>2141640.681248572</v>
       </c>
       <c r="N22">
-        <v>368111.2419482399</v>
+        <v>61417080.637736</v>
       </c>
       <c r="O22">
-        <v>160949.1448242434</v>
+        <v>7524148.671650856</v>
       </c>
       <c r="P22">
-        <v>3080334.568323747</v>
+        <v>531875.6768065448</v>
       </c>
       <c r="Q22">
-        <v>3778426.044265736</v>
+        <v>187174.4515348736</v>
       </c>
       <c r="R22">
-        <v>6658032.383543924</v>
+        <v>846919.2249965747</v>
       </c>
       <c r="S22">
-        <v>4514060.456720164</v>
+        <v>652496.4856761626</v>
       </c>
       <c r="T22">
-        <v>5981621.732276457</v>
+        <v>900775.1719756561</v>
       </c>
       <c r="U22">
-        <v>14887926.81820779</v>
+        <v>120770.8599332541</v>
       </c>
       <c r="V22">
-        <v>264928.6763627924</v>
+        <v>10372182.54145364</v>
       </c>
       <c r="W22">
-        <v>230589.6318967369</v>
+        <v>39243.11856478548</v>
       </c>
       <c r="X22">
-        <v>15450550.2562655</v>
+        <v>637319.1206590395</v>
       </c>
       <c r="Y22">
-        <v>81443.51217424324</v>
+        <v>22438.95367390281</v>
       </c>
       <c r="Z22">
-        <v>66753.19594776852</v>
+        <v>12443.73027769884</v>
       </c>
       <c r="AA22">
-        <v>1986675.298549907</v>
+        <v>1973320.334309347</v>
       </c>
       <c r="AB22">
-        <v>11897.28078272354</v>
+        <v>76473.71831390279</v>
       </c>
       <c r="AC22">
-        <v>117312.4224737703</v>
+        <v>226951.9626346729</v>
       </c>
       <c r="AD22">
-        <v>10062.47763736081</v>
+        <v>242120.5923364278</v>
       </c>
       <c r="AE22">
-        <v>910398.7256460837</v>
+        <v>158516.7799821892</v>
       </c>
       <c r="AF22">
-        <v>21402.57447321838</v>
+        <v>85524.60410214018</v>
       </c>
       <c r="AG22">
-        <v>12816.24685672856</v>
+        <v>1181332.594305057</v>
       </c>
       <c r="AH22">
-        <v>148648.0778552581</v>
+        <v>7655188.184366966</v>
       </c>
       <c r="AI22">
-        <v>7331204.061628177</v>
+        <v>1482429.445656089</v>
       </c>
       <c r="AJ22">
-        <v>17567053.96082288</v>
+        <v>4636726.88303071</v>
       </c>
       <c r="AK22">
-        <v>383882.2608767953</v>
+        <v>664556.2553069965</v>
       </c>
       <c r="AL22">
-        <v>1038954.210710807</v>
+        <v>2294190.461794593</v>
       </c>
       <c r="AM22">
-        <v>4249993.413858357</v>
+        <v>220752.4299717297</v>
       </c>
       <c r="AN22">
-        <v>302300.5018012894</v>
+        <v>190873.8866188492</v>
       </c>
       <c r="AO22">
-        <v>294311.55306915</v>
+        <v>699356.9686264592</v>
       </c>
       <c r="AP22">
-        <v>223900.5354763409</v>
+        <v>89568.5981634843</v>
       </c>
     </row>
     <row r="23" spans="1:42">
       <c r="A23">
-        <v>64019.25194632697</v>
+        <v>103668.2153045279</v>
       </c>
       <c r="B23">
-        <v>342831.8487300452</v>
+        <v>122487.141688784</v>
       </c>
       <c r="C23">
-        <v>111989.8219766011</v>
+        <v>96822.69346208549</v>
       </c>
       <c r="D23">
-        <v>99320.73937943406</v>
+        <v>125571.1285002904</v>
       </c>
       <c r="E23">
-        <v>140097.7023732936</v>
+        <v>62490.98983681761</v>
       </c>
       <c r="F23">
-        <v>543465.5661743988</v>
+        <v>212876.3367611495</v>
       </c>
       <c r="G23">
-        <v>220138.3064576226</v>
+        <v>50993.53039747479</v>
       </c>
       <c r="H23">
-        <v>1241231.982936341</v>
+        <v>82586.90395563788</v>
       </c>
       <c r="I23">
-        <v>178992.0077589103</v>
+        <v>68232.04815983065</v>
       </c>
       <c r="J23">
-        <v>13268495.71420878</v>
+        <v>166652.0231406564</v>
       </c>
       <c r="K23">
-        <v>221021.5381682494</v>
+        <v>147076.0869650756</v>
       </c>
       <c r="L23">
-        <v>3995752.966743537</v>
+        <v>723592.186529099</v>
       </c>
       <c r="M23">
-        <v>2141640.681248572</v>
+        <v>1479000.118883706</v>
       </c>
       <c r="N23">
-        <v>61417080.637736</v>
+        <v>542097.4876492348</v>
       </c>
       <c r="O23">
-        <v>7524148.671650856</v>
+        <v>157545.8099970178</v>
       </c>
       <c r="P23">
-        <v>531875.6768065448</v>
+        <v>376669.8644962559</v>
       </c>
       <c r="Q23">
-        <v>187174.4515348736</v>
+        <v>583457.3831924988</v>
       </c>
       <c r="R23">
-        <v>846919.2249965747</v>
+        <v>479152.1298387923</v>
       </c>
       <c r="S23">
-        <v>652496.4856761626</v>
+        <v>216477.5986524549</v>
       </c>
       <c r="T23">
-        <v>900775.1719756561</v>
+        <v>314554.7276691392</v>
       </c>
       <c r="U23">
-        <v>120770.8599332541</v>
+        <v>25448.40771953833</v>
       </c>
       <c r="V23">
-        <v>10372182.54145364</v>
+        <v>36992.63134093883</v>
       </c>
       <c r="W23">
-        <v>39243.11856478548</v>
+        <v>10527.9881938467</v>
       </c>
       <c r="X23">
-        <v>637319.1206590395</v>
+        <v>2479538.041669981</v>
       </c>
       <c r="Y23">
-        <v>22438.95367390281</v>
+        <v>67295.36945919838</v>
       </c>
       <c r="Z23">
-        <v>12443.73027769884</v>
+        <v>43481.78489514981</v>
       </c>
       <c r="AA23">
-        <v>1973320.334309347</v>
+        <v>1897760.829771373</v>
       </c>
       <c r="AB23">
-        <v>76473.71831390279</v>
+        <v>56270.19827846398</v>
       </c>
       <c r="AC23">
-        <v>226951.9626346729</v>
+        <v>1499753.261613319</v>
       </c>
       <c r="AD23">
-        <v>242120.5923364278</v>
+        <v>24535.99802442043</v>
       </c>
       <c r="AE23">
-        <v>158516.7799821892</v>
+        <v>210150.4171961396</v>
       </c>
       <c r="AF23">
-        <v>85524.60410214018</v>
+        <v>34292.30392874779</v>
       </c>
       <c r="AG23">
-        <v>1181332.594305057</v>
+        <v>80717.07397606008</v>
       </c>
       <c r="AH23">
-        <v>7655188.184366966</v>
+        <v>812708.8846784611</v>
       </c>
       <c r="AI23">
-        <v>1482429.445656089</v>
+        <v>137636.5019666647</v>
       </c>
       <c r="AJ23">
-        <v>4636726.88303071</v>
+        <v>117795.1745929871</v>
       </c>
       <c r="AK23">
-        <v>664556.2553069965</v>
+        <v>59964.47626132739</v>
       </c>
       <c r="AL23">
-        <v>2294190.461794593</v>
+        <v>19103.95470036296</v>
       </c>
       <c r="AM23">
-        <v>220752.4299717297</v>
+        <v>49330.04214044334</v>
       </c>
       <c r="AN23">
-        <v>190873.8866188492</v>
+        <v>35564.56831023159</v>
       </c>
       <c r="AO23">
-        <v>699356.9686264592</v>
+        <v>45195.88646644815</v>
       </c>
       <c r="AP23">
-        <v>89568.5981634843</v>
+        <v>276630.7042602727</v>
       </c>
     </row>
     <row r="24" spans="1:42">
       <c r="A24">
-        <v>103668.2153045279</v>
+        <v>9781262.559526145</v>
       </c>
       <c r="B24">
-        <v>122487.141688784</v>
+        <v>8741731.630661502</v>
       </c>
       <c r="C24">
-        <v>96822.69346208549</v>
+        <v>2926338.415726975</v>
       </c>
       <c r="D24">
-        <v>125571.1285002904</v>
+        <v>9100639.61183005</v>
       </c>
       <c r="E24">
-        <v>62490.98983681761</v>
+        <v>5822238.345454094</v>
       </c>
       <c r="F24">
-        <v>212876.3367611495</v>
+        <v>9306417.401403883</v>
       </c>
       <c r="G24">
-        <v>50993.53039747479</v>
+        <v>6878584.800580781</v>
       </c>
       <c r="H24">
-        <v>82586.90395563788</v>
+        <v>3036721.612729103</v>
       </c>
       <c r="I24">
-        <v>68232.04815983065</v>
+        <v>4681126.59639735</v>
       </c>
       <c r="J24">
-        <v>166652.0231406564</v>
+        <v>7248471.73657917</v>
       </c>
       <c r="K24">
-        <v>147076.0869650756</v>
+        <v>5848795.497601828</v>
       </c>
       <c r="L24">
-        <v>723592.186529099</v>
+        <v>56288646.34042444</v>
       </c>
       <c r="M24">
-        <v>1479000.118883706</v>
+        <v>36201677.85095903</v>
       </c>
       <c r="N24">
-        <v>542097.4876492348</v>
+        <v>57536198.70033981</v>
       </c>
       <c r="O24">
-        <v>157545.8099970178</v>
+        <v>20720842.76801814</v>
       </c>
       <c r="P24">
-        <v>376669.8644962559</v>
+        <v>7695366.540835381</v>
       </c>
       <c r="Q24">
-        <v>583457.3831924988</v>
+        <v>5342018.213969417</v>
       </c>
       <c r="R24">
-        <v>479152.1298387923</v>
+        <v>7476334.525172409</v>
       </c>
       <c r="S24">
-        <v>216477.5986524549</v>
+        <v>7312078.009583622</v>
       </c>
       <c r="T24">
-        <v>314554.7276691392</v>
+        <v>9695467.381251475</v>
       </c>
       <c r="U24">
-        <v>25448.40771953833</v>
+        <v>1237248.352147566</v>
       </c>
       <c r="V24">
-        <v>36992.63134093883</v>
+        <v>1368967.838825122</v>
       </c>
       <c r="W24">
-        <v>10527.9881938467</v>
+        <v>539523.6681628864</v>
       </c>
       <c r="X24">
-        <v>2479538.041669981</v>
+        <v>186103251.2746665</v>
       </c>
       <c r="Y24">
-        <v>67295.36945919838</v>
+        <v>1213691.01838577</v>
       </c>
       <c r="Z24">
-        <v>43481.78489514981</v>
+        <v>3977284.791425169</v>
       </c>
       <c r="AA24">
-        <v>1897760.829771373</v>
+        <v>33469858.99193804</v>
       </c>
       <c r="AB24">
-        <v>56270.19827846398</v>
+        <v>12421049.42850462</v>
       </c>
       <c r="AC24">
-        <v>1499753.261613319</v>
+        <v>13756693.55073802</v>
       </c>
       <c r="AD24">
-        <v>24535.99802442043</v>
+        <v>5078756.77449975</v>
       </c>
       <c r="AE24">
-        <v>210150.4171961396</v>
+        <v>7504039.642361883</v>
       </c>
       <c r="AF24">
-        <v>34292.30392874779</v>
+        <v>5639812.077913898</v>
       </c>
       <c r="AG24">
-        <v>80717.07397606008</v>
+        <v>4055830.828410567</v>
       </c>
       <c r="AH24">
-        <v>812708.8846784611</v>
+        <v>3268373.322953182</v>
       </c>
       <c r="AI24">
-        <v>137636.5019666647</v>
+        <v>2597016.635525522</v>
       </c>
       <c r="AJ24">
-        <v>117795.1745929871</v>
+        <v>1983184.93465933</v>
       </c>
       <c r="AK24">
-        <v>59964.47626132739</v>
+        <v>2600148.604381955</v>
       </c>
       <c r="AL24">
-        <v>19103.95470036296</v>
+        <v>3339538.151807799</v>
       </c>
       <c r="AM24">
-        <v>49330.04214044334</v>
+        <v>2815465.738869576</v>
       </c>
       <c r="AN24">
-        <v>35564.56831023159</v>
+        <v>2931312.985742804</v>
       </c>
       <c r="AO24">
-        <v>45195.88646644815</v>
+        <v>1623896.971211773</v>
       </c>
       <c r="AP24">
-        <v>276630.7042602727</v>
+        <v>6410212.872022334</v>
       </c>
     </row>
     <row r="25" spans="1:42">
       <c r="A25">
-        <v>9781262.559526145</v>
+        <v>151195.2214284361</v>
       </c>
       <c r="B25">
-        <v>8741731.630661502</v>
+        <v>30397.78866334848</v>
       </c>
       <c r="C25">
-        <v>2926338.415726975</v>
+        <v>29011.07448927159</v>
       </c>
       <c r="D25">
-        <v>9100639.61183005</v>
+        <v>5181.528178770821</v>
       </c>
       <c r="E25">
-        <v>5822238.345454094</v>
+        <v>87994.23761991735</v>
       </c>
       <c r="F25">
-        <v>9306417.401403883</v>
+        <v>498330.2446113994</v>
       </c>
       <c r="G25">
-        <v>6878584.800580781</v>
+        <v>94340.47961613203</v>
       </c>
       <c r="H25">
-        <v>3036721.612729103</v>
+        <v>104966.0805897088</v>
       </c>
       <c r="I25">
-        <v>4681126.59639735</v>
+        <v>26008.50445452947</v>
       </c>
       <c r="J25">
-        <v>7248471.73657917</v>
+        <v>440952.9326341958</v>
       </c>
       <c r="K25">
-        <v>5848795.497601828</v>
+        <v>550100.3925054483</v>
       </c>
       <c r="L25">
-        <v>56288646.34042444</v>
+        <v>2424731.200315164</v>
       </c>
       <c r="M25">
-        <v>36201677.85095903</v>
+        <v>238030.02926632</v>
       </c>
       <c r="N25">
-        <v>57536198.70033981</v>
+        <v>307302.5114663039</v>
       </c>
       <c r="O25">
-        <v>20720842.76801814</v>
+        <v>418140.5322327833</v>
       </c>
       <c r="P25">
-        <v>7695366.540835381</v>
+        <v>732988.0288867069</v>
       </c>
       <c r="Q25">
-        <v>5342018.213969417</v>
+        <v>281181.9270992755</v>
       </c>
       <c r="R25">
-        <v>7476334.525172409</v>
+        <v>218275.4869625515</v>
       </c>
       <c r="S25">
-        <v>7312078.009583622</v>
+        <v>212584.3208883074</v>
       </c>
       <c r="T25">
-        <v>9695467.381251475</v>
+        <v>121069.4816278737</v>
       </c>
       <c r="U25">
-        <v>1237248.352147566</v>
+        <v>11240.61972619562</v>
       </c>
       <c r="V25">
-        <v>1368967.838825122</v>
+        <v>245002.5573703068</v>
       </c>
       <c r="W25">
-        <v>539523.6681628864</v>
+        <v>94253.06553656672</v>
       </c>
       <c r="X25">
-        <v>186103251.2746665</v>
+        <v>1770095.294648526</v>
       </c>
       <c r="Y25">
-        <v>1213691.01838577</v>
+        <v>6685502.707977147</v>
       </c>
       <c r="Z25">
-        <v>3977284.791425169</v>
+        <v>363.1727329621061</v>
       </c>
       <c r="AA25">
-        <v>33469858.99193804</v>
+        <v>40027.88515471236</v>
       </c>
       <c r="AB25">
-        <v>12421049.42850462</v>
+        <v>121985.8389776734</v>
       </c>
       <c r="AC25">
-        <v>13756693.55073802</v>
+        <v>14051329.88076395</v>
       </c>
       <c r="AD25">
-        <v>5078756.77449975</v>
+        <v>2747057.433792791</v>
       </c>
       <c r="AE25">
-        <v>7504039.642361883</v>
+        <v>53417.74266326035</v>
       </c>
       <c r="AF25">
-        <v>5639812.077913898</v>
+        <v>39445.93850886075</v>
       </c>
       <c r="AG25">
-        <v>4055830.828410567</v>
+        <v>1735808.394402933</v>
       </c>
       <c r="AH25">
-        <v>3268373.322953182</v>
+        <v>374897.5639685993</v>
       </c>
       <c r="AI25">
-        <v>2597016.635525522</v>
+        <v>147976.4746384949</v>
       </c>
       <c r="AJ25">
-        <v>1983184.93465933</v>
+        <v>162359.9852025731</v>
       </c>
       <c r="AK25">
-        <v>2600148.604381955</v>
+        <v>101928.9524975001</v>
       </c>
       <c r="AL25">
-        <v>3339538.151807799</v>
+        <v>1050023.243133967</v>
       </c>
       <c r="AM25">
-        <v>2815465.738869576</v>
+        <v>489816.450076514</v>
       </c>
       <c r="AN25">
-        <v>2931312.985742804</v>
+        <v>281900.7862756595</v>
       </c>
       <c r="AO25">
-        <v>1623896.971211773</v>
+        <v>300472.714751108</v>
       </c>
       <c r="AP25">
-        <v>6410212.872022334</v>
+        <v>227074.1074047627</v>
       </c>
     </row>
     <row r="26" spans="1:42">
       <c r="A26">
-        <v>151195.2214284361</v>
+        <v>32711.91132202823</v>
       </c>
       <c r="B26">
-        <v>30397.78866334848</v>
+        <v>55757.76520560393</v>
       </c>
       <c r="C26">
-        <v>29011.07448927159</v>
+        <v>84020.38343402336</v>
       </c>
       <c r="D26">
-        <v>5181.528178770821</v>
+        <v>35040.57568013049</v>
       </c>
       <c r="E26">
-        <v>87994.23761991735</v>
+        <v>71885.63957785902</v>
       </c>
       <c r="F26">
-        <v>498330.2446113994</v>
+        <v>1403785.449456715</v>
       </c>
       <c r="G26">
-        <v>94340.47961613203</v>
+        <v>114340.5913653612</v>
       </c>
       <c r="H26">
-        <v>104966.0805897088</v>
+        <v>153646.1252980754</v>
       </c>
       <c r="I26">
-        <v>26008.50445452947</v>
+        <v>111271.1954792526</v>
       </c>
       <c r="J26">
-        <v>440952.9326341958</v>
+        <v>317623.9422523722</v>
       </c>
       <c r="K26">
-        <v>550100.3925054483</v>
+        <v>113206.8088996729</v>
       </c>
       <c r="L26">
-        <v>2424731.200315164</v>
+        <v>835776.4390866904</v>
       </c>
       <c r="M26">
-        <v>238030.02926632</v>
+        <v>545888.0465247548</v>
       </c>
       <c r="N26">
-        <v>307302.5114663039</v>
+        <v>393758.2238941835</v>
       </c>
       <c r="O26">
-        <v>418140.5322327833</v>
+        <v>139230.5057029814</v>
       </c>
       <c r="P26">
-        <v>732988.0288867069</v>
+        <v>219263.3448791092</v>
       </c>
       <c r="Q26">
-        <v>281181.9270992755</v>
+        <v>147726.3419782508</v>
       </c>
       <c r="R26">
-        <v>218275.4869625515</v>
+        <v>244869.3524583169</v>
       </c>
       <c r="S26">
-        <v>212584.3208883074</v>
+        <v>302217.4944345367</v>
       </c>
       <c r="T26">
-        <v>121069.4816278737</v>
+        <v>349545.5391299438</v>
       </c>
       <c r="U26">
-        <v>11240.61972619562</v>
+        <v>59337.51934929837</v>
       </c>
       <c r="V26">
-        <v>245002.5573703068</v>
+        <v>131495.3288359194</v>
       </c>
       <c r="W26">
-        <v>94253.06553656672</v>
+        <v>13497.85187673863</v>
       </c>
       <c r="X26">
-        <v>1770095.294648526</v>
+        <v>947026.6622768341</v>
       </c>
       <c r="Y26">
-        <v>6685502.707977147</v>
+        <v>17162.71854813626</v>
       </c>
       <c r="Z26">
-        <v>363.1727329621061</v>
+        <v>1549648.402816244</v>
       </c>
       <c r="AA26">
-        <v>40027.88515471236</v>
+        <v>2372280.798543696</v>
       </c>
       <c r="AB26">
-        <v>121985.8389776734</v>
+        <v>545194.385044612</v>
       </c>
       <c r="AC26">
-        <v>14051329.88076395</v>
+        <v>375576.5041398763</v>
       </c>
       <c r="AD26">
-        <v>2747057.433792791</v>
+        <v>1406884.320474289</v>
       </c>
       <c r="AE26">
-        <v>53417.74266326035</v>
+        <v>193717.749494326</v>
       </c>
       <c r="AF26">
-        <v>39445.93850886075</v>
+        <v>483109.446065844</v>
       </c>
       <c r="AG26">
-        <v>1735808.394402933</v>
+        <v>449350.7675885448</v>
       </c>
       <c r="AH26">
-        <v>374897.5639685993</v>
+        <v>89095.82412073704</v>
       </c>
       <c r="AI26">
-        <v>147976.4746384949</v>
+        <v>383555.1858796521</v>
       </c>
       <c r="AJ26">
-        <v>162359.9852025731</v>
+        <v>89099.69026103753</v>
       </c>
       <c r="AK26">
-        <v>101928.9524975001</v>
+        <v>176790.5844101399</v>
       </c>
       <c r="AL26">
-        <v>1050023.243133967</v>
+        <v>379040.24051293</v>
       </c>
       <c r="AM26">
-        <v>489816.450076514</v>
+        <v>372452.1270345754</v>
       </c>
       <c r="AN26">
-        <v>281900.7862756595</v>
+        <v>265400.4511916705</v>
       </c>
       <c r="AO26">
-        <v>300472.714751108</v>
+        <v>255130.1252935483</v>
       </c>
       <c r="AP26">
-        <v>227074.1074047627</v>
+        <v>586955.3525763907</v>
       </c>
     </row>
     <row r="27" spans="1:42">
       <c r="A27">
-        <v>32711.91132202823</v>
+        <v>835981.7303237921</v>
       </c>
       <c r="B27">
-        <v>55757.76520560393</v>
+        <v>147358.6689720849</v>
       </c>
       <c r="C27">
-        <v>84020.38343402336</v>
+        <v>39424.74032859632</v>
       </c>
       <c r="D27">
-        <v>35040.57568013049</v>
+        <v>28844.2255165957</v>
       </c>
       <c r="E27">
-        <v>71885.63957785902</v>
+        <v>31774.79890493655</v>
       </c>
       <c r="F27">
-        <v>1403785.449456715</v>
+        <v>254393.6766367883</v>
       </c>
       <c r="G27">
-        <v>114340.5913653612</v>
+        <v>116839.0389351818</v>
       </c>
       <c r="H27">
-        <v>153646.1252980754</v>
+        <v>109489.7429325078</v>
       </c>
       <c r="I27">
-        <v>111271.1954792526</v>
+        <v>134661.0154380525</v>
       </c>
       <c r="J27">
-        <v>317623.9422523722</v>
+        <v>110624.7199706913</v>
       </c>
       <c r="K27">
-        <v>113206.8088996729</v>
+        <v>32767.18711852229</v>
       </c>
       <c r="L27">
-        <v>835776.4390866904</v>
+        <v>521632.1942989586</v>
       </c>
       <c r="M27">
-        <v>545888.0465247548</v>
+        <v>189068.8145746969</v>
       </c>
       <c r="N27">
-        <v>393758.2238941835</v>
+        <v>180070.4363881539</v>
       </c>
       <c r="O27">
-        <v>139230.5057029814</v>
+        <v>109849.1324380839</v>
       </c>
       <c r="P27">
-        <v>219263.3448791092</v>
+        <v>157546.9036367944</v>
       </c>
       <c r="Q27">
-        <v>147726.3419782508</v>
+        <v>109817.8448934845</v>
       </c>
       <c r="R27">
-        <v>244869.3524583169</v>
+        <v>176728.3831994966</v>
       </c>
       <c r="S27">
-        <v>302217.4944345367</v>
+        <v>145663.4697948523</v>
       </c>
       <c r="T27">
-        <v>349545.5391299438</v>
+        <v>531693.8866476605</v>
       </c>
       <c r="U27">
-        <v>59337.51934929837</v>
+        <v>28552.78451513156</v>
       </c>
       <c r="V27">
-        <v>131495.3288359194</v>
+        <v>65792.65361326531</v>
       </c>
       <c r="W27">
-        <v>13497.85187673863</v>
+        <v>14305.18768206266</v>
       </c>
       <c r="X27">
-        <v>947026.6622768341</v>
+        <v>2571831.588067474</v>
       </c>
       <c r="Y27">
-        <v>17162.71854813626</v>
+        <v>14733.91697803142</v>
       </c>
       <c r="Z27">
-        <v>1549648.402816244</v>
+        <v>48705.37332926348</v>
       </c>
       <c r="AA27">
-        <v>2372280.798543696</v>
+        <v>95382696.47277953</v>
       </c>
       <c r="AB27">
-        <v>545194.385044612</v>
+        <v>1544037.729756832</v>
       </c>
       <c r="AC27">
-        <v>375576.5041398763</v>
+        <v>1704904.52155004</v>
       </c>
       <c r="AD27">
-        <v>1406884.320474289</v>
+        <v>1217146.354085892</v>
       </c>
       <c r="AE27">
-        <v>193717.749494326</v>
+        <v>800031.919406889</v>
       </c>
       <c r="AF27">
-        <v>483109.446065844</v>
+        <v>4093664.396410189</v>
       </c>
       <c r="AG27">
-        <v>449350.7675885448</v>
+        <v>9399530.873327361</v>
       </c>
       <c r="AH27">
-        <v>89095.82412073704</v>
+        <v>374508.2236967884</v>
       </c>
       <c r="AI27">
-        <v>383555.1858796521</v>
+        <v>353769.0487948009</v>
       </c>
       <c r="AJ27">
-        <v>89099.69026103753</v>
+        <v>403559.9085952069</v>
       </c>
       <c r="AK27">
-        <v>176790.5844101399</v>
+        <v>994863.3213910894</v>
       </c>
       <c r="AL27">
-        <v>379040.24051293</v>
+        <v>515505.8890290845</v>
       </c>
       <c r="AM27">
-        <v>372452.1270345754</v>
+        <v>2938606.196160804</v>
       </c>
       <c r="AN27">
-        <v>265400.4511916705</v>
+        <v>1045748.231173834</v>
       </c>
       <c r="AO27">
-        <v>255130.1252935483</v>
+        <v>1091560.712485248</v>
       </c>
       <c r="AP27">
-        <v>586955.3525763907</v>
+        <v>9638770.919158088</v>
       </c>
     </row>
     <row r="28" spans="1:42">
       <c r="A28">
-        <v>835981.7303237921</v>
+        <v>25158480.35037811</v>
       </c>
       <c r="B28">
-        <v>147358.6689720849</v>
+        <v>5891736.480275925</v>
       </c>
       <c r="C28">
-        <v>39424.74032859632</v>
+        <v>766912.3269331052</v>
       </c>
       <c r="D28">
-        <v>28844.2255165957</v>
+        <v>2497799.131815188</v>
       </c>
       <c r="E28">
-        <v>31774.79890493655</v>
+        <v>2698432.14193299</v>
       </c>
       <c r="F28">
-        <v>254393.6766367883</v>
+        <v>69961289.54328136</v>
       </c>
       <c r="G28">
-        <v>116839.0389351818</v>
+        <v>16719143.09058828</v>
       </c>
       <c r="H28">
-        <v>109489.7429325078</v>
+        <v>30580902.94193291</v>
       </c>
       <c r="I28">
-        <v>134661.0154380525</v>
+        <v>23411046.39796432</v>
       </c>
       <c r="J28">
-        <v>110624.7199706913</v>
+        <v>25513304.95605819</v>
       </c>
       <c r="K28">
-        <v>32767.18711852229</v>
+        <v>8585752.035876786</v>
       </c>
       <c r="L28">
-        <v>521632.1942989586</v>
+        <v>72592021.9461139</v>
       </c>
       <c r="M28">
-        <v>189068.8145746969</v>
+        <v>32795077.59905335</v>
       </c>
       <c r="N28">
-        <v>180070.4363881539</v>
+        <v>27995033.18375995</v>
       </c>
       <c r="O28">
-        <v>109849.1324380839</v>
+        <v>18597836.44346723</v>
       </c>
       <c r="P28">
-        <v>157546.9036367944</v>
+        <v>23892150.9841861</v>
       </c>
       <c r="Q28">
-        <v>109817.8448934845</v>
+        <v>17094004.49419562</v>
       </c>
       <c r="R28">
-        <v>176728.3831994966</v>
+        <v>67521595.07018046</v>
       </c>
       <c r="S28">
-        <v>145663.4697948523</v>
+        <v>35553052.70321152</v>
       </c>
       <c r="T28">
-        <v>531693.8866476605</v>
+        <v>49308551.79644726</v>
       </c>
       <c r="U28">
-        <v>28552.78451513156</v>
+        <v>4503949.113619221</v>
       </c>
       <c r="V28">
-        <v>65792.65361326531</v>
+        <v>2560088.445467914</v>
       </c>
       <c r="W28">
-        <v>14305.18768206266</v>
+        <v>963224.4378850117</v>
       </c>
       <c r="X28">
-        <v>2571831.588067474</v>
+        <v>13478801.34322605</v>
       </c>
       <c r="Y28">
-        <v>14733.91697803142</v>
+        <v>1215216.471539343</v>
       </c>
       <c r="Z28">
-        <v>48705.37332926348</v>
+        <v>436324.0616777939</v>
       </c>
       <c r="AA28">
-        <v>95382696.47277953</v>
+        <v>124405510.4367745</v>
       </c>
       <c r="AB28">
-        <v>1544037.729756832</v>
+        <v>9313009.974715514</v>
       </c>
       <c r="AC28">
-        <v>1704904.52155004</v>
+        <v>29598348.42113802</v>
       </c>
       <c r="AD28">
-        <v>1217146.354085892</v>
+        <v>27487559.22029235</v>
       </c>
       <c r="AE28">
-        <v>800031.919406889</v>
+        <v>10700108.57006131</v>
       </c>
       <c r="AF28">
-        <v>4093664.396410189</v>
+        <v>7519904.720500267</v>
       </c>
       <c r="AG28">
-        <v>9399530.873327361</v>
+        <v>2659184.894972348</v>
       </c>
       <c r="AH28">
-        <v>374508.2236967884</v>
+        <v>30185438.86637268</v>
       </c>
       <c r="AI28">
-        <v>353769.0487948009</v>
+        <v>5439641.030124178</v>
       </c>
       <c r="AJ28">
-        <v>403559.9085952069</v>
+        <v>10178265.44692715</v>
       </c>
       <c r="AK28">
-        <v>994863.3213910894</v>
+        <v>2223608.901273814</v>
       </c>
       <c r="AL28">
-        <v>515505.8890290845</v>
+        <v>7638401.530345607</v>
       </c>
       <c r="AM28">
-        <v>2938606.196160804</v>
+        <v>5180775.245284282</v>
       </c>
       <c r="AN28">
-        <v>1045748.231173834</v>
+        <v>28692309.88254831</v>
       </c>
       <c r="AO28">
-        <v>1091560.712485248</v>
+        <v>4988478.773719927</v>
       </c>
       <c r="AP28">
-        <v>9638770.919158088</v>
+        <v>10072478.58824917</v>
       </c>
     </row>
     <row r="29" spans="1:42">
       <c r="A29">
-        <v>25158480.35037811</v>
+        <v>25057842.46461628</v>
       </c>
       <c r="B29">
-        <v>5891736.480275925</v>
+        <v>5342452.823473125</v>
       </c>
       <c r="C29">
-        <v>766912.3269331052</v>
+        <v>805350.3878042831</v>
       </c>
       <c r="D29">
-        <v>2497799.131815188</v>
+        <v>2364806.409569594</v>
       </c>
       <c r="E29">
-        <v>2698432.14193299</v>
+        <v>2951905.853210614</v>
       </c>
       <c r="F29">
-        <v>69961289.54328136</v>
+        <v>37640118.23992622</v>
       </c>
       <c r="G29">
-        <v>16719143.09058828</v>
+        <v>14610404.99124786</v>
       </c>
       <c r="H29">
-        <v>30580902.94193291</v>
+        <v>17835379.79495614</v>
       </c>
       <c r="I29">
-        <v>23411046.39796432</v>
+        <v>9367285.915194448</v>
       </c>
       <c r="J29">
-        <v>25513304.95605819</v>
+        <v>12396281.59978127</v>
       </c>
       <c r="K29">
-        <v>8585752.035876786</v>
+        <v>10939093.21580594</v>
       </c>
       <c r="L29">
-        <v>72592021.9461139</v>
+        <v>60127042.00033554</v>
       </c>
       <c r="M29">
-        <v>32795077.59905335</v>
+        <v>28502918.54046387</v>
       </c>
       <c r="N29">
-        <v>27995033.18375995</v>
+        <v>30997153.8793545</v>
       </c>
       <c r="O29">
-        <v>18597836.44346723</v>
+        <v>15005777.0910434</v>
       </c>
       <c r="P29">
-        <v>23892150.9841861</v>
+        <v>15546715.95345228</v>
       </c>
       <c r="Q29">
-        <v>17094004.49419562</v>
+        <v>12456817.54003786</v>
       </c>
       <c r="R29">
-        <v>67521595.07018046</v>
+        <v>27675423.77448792</v>
       </c>
       <c r="S29">
-        <v>35553052.70321152</v>
+        <v>20854133.67486965</v>
       </c>
       <c r="T29">
-        <v>49308551.79644726</v>
+        <v>15839131.93882018</v>
       </c>
       <c r="U29">
-        <v>4503949.113619221</v>
+        <v>2695342.395142514</v>
       </c>
       <c r="V29">
-        <v>2560088.445467914</v>
+        <v>1764689.287873533</v>
       </c>
       <c r="W29">
-        <v>963224.4378850117</v>
+        <v>512411.8525064266</v>
       </c>
       <c r="X29">
-        <v>13478801.34322605</v>
+        <v>11324402.38037398</v>
       </c>
       <c r="Y29">
-        <v>1215216.471539343</v>
+        <v>1157210.575247165</v>
       </c>
       <c r="Z29">
-        <v>436324.0616777939</v>
+        <v>313730.7515405137</v>
       </c>
       <c r="AA29">
-        <v>124405510.4367745</v>
+        <v>84246773.87531261</v>
       </c>
       <c r="AB29">
-        <v>9313009.974715514</v>
+        <v>86178444.87827215</v>
       </c>
       <c r="AC29">
-        <v>29598348.42113802</v>
+        <v>122548994.1112664</v>
       </c>
       <c r="AD29">
-        <v>27487559.22029235</v>
+        <v>17139299.14858959</v>
       </c>
       <c r="AE29">
-        <v>10700108.57006131</v>
+        <v>10646582.36090168</v>
       </c>
       <c r="AF29">
-        <v>7519904.720500267</v>
+        <v>19364244.58918157</v>
       </c>
       <c r="AG29">
-        <v>2659184.894972348</v>
+        <v>4329176.413673431</v>
       </c>
       <c r="AH29">
-        <v>30185438.86637268</v>
+        <v>53214978.7500814</v>
       </c>
       <c r="AI29">
-        <v>5439641.030124178</v>
+        <v>9197746.104563</v>
       </c>
       <c r="AJ29">
-        <v>10178265.44692715</v>
+        <v>19822364.51392703</v>
       </c>
       <c r="AK29">
-        <v>2223608.901273814</v>
+        <v>3427205.084608566</v>
       </c>
       <c r="AL29">
-        <v>7638401.530345607</v>
+        <v>7831947.959982328</v>
       </c>
       <c r="AM29">
-        <v>5180775.245284282</v>
+        <v>15734468.0627026</v>
       </c>
       <c r="AN29">
-        <v>28692309.88254831</v>
+        <v>13627246.0411027</v>
       </c>
       <c r="AO29">
-        <v>4988478.773719927</v>
+        <v>6321946.16232831</v>
       </c>
       <c r="AP29">
-        <v>10072478.58824917</v>
+        <v>30873242.54487899</v>
       </c>
     </row>
     <row r="30" spans="1:42">
       <c r="A30">
-        <v>25057842.46461628</v>
+        <v>2384349.528827611</v>
       </c>
       <c r="B30">
-        <v>5342452.823473125</v>
+        <v>817531.865229341</v>
       </c>
       <c r="C30">
-        <v>805350.3878042831</v>
+        <v>351000.4573885224</v>
       </c>
       <c r="D30">
-        <v>2364806.409569594</v>
+        <v>707285.945380368</v>
       </c>
       <c r="E30">
-        <v>2951905.853210614</v>
+        <v>631787.6226538956</v>
       </c>
       <c r="F30">
-        <v>37640118.23992622</v>
+        <v>6179285.053701922</v>
       </c>
       <c r="G30">
-        <v>14610404.99124786</v>
+        <v>1227525.924247213</v>
       </c>
       <c r="H30">
-        <v>17835379.79495614</v>
+        <v>1498198.934670681</v>
       </c>
       <c r="I30">
-        <v>9367285.915194448</v>
+        <v>1151564.849547983</v>
       </c>
       <c r="J30">
-        <v>12396281.59978127</v>
+        <v>2255800.758478679</v>
       </c>
       <c r="K30">
-        <v>10939093.21580594</v>
+        <v>683007.1596459374</v>
       </c>
       <c r="L30">
-        <v>60127042.00033554</v>
+        <v>9262832.894425757</v>
       </c>
       <c r="M30">
-        <v>28502918.54046387</v>
+        <v>4581372.437273755</v>
       </c>
       <c r="N30">
-        <v>30997153.8793545</v>
+        <v>4305429.449748254</v>
       </c>
       <c r="O30">
-        <v>15005777.0910434</v>
+        <v>2780224.620188619</v>
       </c>
       <c r="P30">
-        <v>15546715.95345228</v>
+        <v>3063913.216314081</v>
       </c>
       <c r="Q30">
-        <v>12456817.54003786</v>
+        <v>3203085.138003083</v>
       </c>
       <c r="R30">
-        <v>27675423.77448792</v>
+        <v>3493569.104884925</v>
       </c>
       <c r="S30">
-        <v>20854133.67486965</v>
+        <v>3262083.084008868</v>
       </c>
       <c r="T30">
-        <v>15839131.93882018</v>
+        <v>3248381.109375898</v>
       </c>
       <c r="U30">
-        <v>2695342.395142514</v>
+        <v>931005.8968596645</v>
       </c>
       <c r="V30">
-        <v>1764689.287873533</v>
+        <v>310252.9644721267</v>
       </c>
       <c r="W30">
-        <v>512411.8525064266</v>
+        <v>138856.2690540332</v>
       </c>
       <c r="X30">
-        <v>11324402.38037398</v>
+        <v>1971689.825357073</v>
       </c>
       <c r="Y30">
-        <v>1157210.575247165</v>
+        <v>143143.0572666915</v>
       </c>
       <c r="Z30">
-        <v>313730.7515405137</v>
+        <v>160955.7770681024</v>
       </c>
       <c r="AA30">
-        <v>84246773.87531261</v>
+        <v>18435742.89447482</v>
       </c>
       <c r="AB30">
-        <v>86178444.87827215</v>
+        <v>7453369.937628358</v>
       </c>
       <c r="AC30">
-        <v>122548994.1112664</v>
+        <v>18277842.45229557</v>
       </c>
       <c r="AD30">
-        <v>17139299.14858959</v>
+        <v>1214974.766423848</v>
       </c>
       <c r="AE30">
-        <v>10646582.36090168</v>
+        <v>4470970.031882558</v>
       </c>
       <c r="AF30">
-        <v>19364244.58918157</v>
+        <v>38693925.91360276</v>
       </c>
       <c r="AG30">
-        <v>4329176.413673431</v>
+        <v>3913088.218627389</v>
       </c>
       <c r="AH30">
-        <v>53214978.7500814</v>
+        <v>48287814.24259894</v>
       </c>
       <c r="AI30">
-        <v>9197746.104563</v>
+        <v>8533661.254598241</v>
       </c>
       <c r="AJ30">
-        <v>19822364.51392703</v>
+        <v>15487059.84613608</v>
       </c>
       <c r="AK30">
-        <v>3427205.084608566</v>
+        <v>980860.8562260967</v>
       </c>
       <c r="AL30">
-        <v>7831947.959982328</v>
+        <v>3297433.567419012</v>
       </c>
       <c r="AM30">
-        <v>15734468.0627026</v>
+        <v>10400959.87682304</v>
       </c>
       <c r="AN30">
-        <v>13627246.0411027</v>
+        <v>2162898.574292667</v>
       </c>
       <c r="AO30">
-        <v>6321946.16232831</v>
+        <v>6029173.500349007</v>
       </c>
       <c r="AP30">
-        <v>30873242.54487899</v>
+        <v>39243905.33559033</v>
       </c>
     </row>
     <row r="31" spans="1:42">
       <c r="A31">
-        <v>2384349.528827611</v>
+        <v>1842566.65209627</v>
       </c>
       <c r="B31">
-        <v>817531.865229341</v>
+        <v>290173.8740203134</v>
       </c>
       <c r="C31">
-        <v>351000.4573885224</v>
+        <v>152369.7895332465</v>
       </c>
       <c r="D31">
-        <v>707285.945380368</v>
+        <v>442898.122612313</v>
       </c>
       <c r="E31">
-        <v>631787.6226538956</v>
+        <v>344779.9292107907</v>
       </c>
       <c r="F31">
-        <v>6179285.053701922</v>
+        <v>2969709.666485457</v>
       </c>
       <c r="G31">
-        <v>1227525.924247213</v>
+        <v>866519.345733469</v>
       </c>
       <c r="H31">
-        <v>1498198.934670681</v>
+        <v>1527834.794796513</v>
       </c>
       <c r="I31">
-        <v>1151564.849547983</v>
+        <v>607626.5173875265</v>
       </c>
       <c r="J31">
-        <v>2255800.758478679</v>
+        <v>1434542.179504777</v>
       </c>
       <c r="K31">
-        <v>683007.1596459374</v>
+        <v>164738.5075212988</v>
       </c>
       <c r="L31">
-        <v>9262832.894425757</v>
+        <v>5148881.938715462</v>
       </c>
       <c r="M31">
-        <v>4581372.437273755</v>
+        <v>1729217.700221388</v>
       </c>
       <c r="N31">
-        <v>4305429.449748254</v>
+        <v>1281835.147344632</v>
       </c>
       <c r="O31">
-        <v>2780224.620188619</v>
+        <v>1365563.350533399</v>
       </c>
       <c r="P31">
-        <v>3063913.216314081</v>
+        <v>2689959.252711629</v>
       </c>
       <c r="Q31">
-        <v>3203085.138003083</v>
+        <v>1341674.422116604</v>
       </c>
       <c r="R31">
-        <v>3493569.104884925</v>
+        <v>2262519.157689176</v>
       </c>
       <c r="S31">
-        <v>3262083.084008868</v>
+        <v>2711594.631722348</v>
       </c>
       <c r="T31">
-        <v>3248381.109375898</v>
+        <v>22782078.83102781</v>
       </c>
       <c r="U31">
-        <v>931005.8968596645</v>
+        <v>563498.9441062626</v>
       </c>
       <c r="V31">
-        <v>310252.9644721267</v>
+        <v>132624.6008335749</v>
       </c>
       <c r="W31">
-        <v>138856.2690540332</v>
+        <v>69378.58294296527</v>
       </c>
       <c r="X31">
-        <v>1971689.825357073</v>
+        <v>3520434.842685677</v>
       </c>
       <c r="Y31">
-        <v>143143.0572666915</v>
+        <v>184134.4421277205</v>
       </c>
       <c r="Z31">
-        <v>160955.7770681024</v>
+        <v>221442.871831327</v>
       </c>
       <c r="AA31">
-        <v>18435742.89447482</v>
+        <v>39400911.28101083</v>
       </c>
       <c r="AB31">
-        <v>7453369.937628358</v>
+        <v>9561425.774541572</v>
       </c>
       <c r="AC31">
-        <v>18277842.45229557</v>
+        <v>22675850.44906616</v>
       </c>
       <c r="AD31">
-        <v>1214974.766423848</v>
+        <v>3203910.615897206</v>
       </c>
       <c r="AE31">
-        <v>4470970.031882558</v>
+        <v>133177779.5573687</v>
       </c>
       <c r="AF31">
-        <v>38693925.91360276</v>
+        <v>41455809.2692422</v>
       </c>
       <c r="AG31">
-        <v>3913088.218627389</v>
+        <v>6322406.05647733</v>
       </c>
       <c r="AH31">
-        <v>48287814.24259894</v>
+        <v>9365599.305906238</v>
       </c>
       <c r="AI31">
-        <v>8533661.254598241</v>
+        <v>2035151.879305166</v>
       </c>
       <c r="AJ31">
-        <v>15487059.84613608</v>
+        <v>6752919.197557616</v>
       </c>
       <c r="AK31">
-        <v>980860.8562260967</v>
+        <v>1418018.774583353</v>
       </c>
       <c r="AL31">
-        <v>3297433.567419012</v>
+        <v>1483154.882269659</v>
       </c>
       <c r="AM31">
-        <v>10400959.87682304</v>
+        <v>8001709.022329746</v>
       </c>
       <c r="AN31">
-        <v>2162898.574292667</v>
+        <v>8034068.958611645</v>
       </c>
       <c r="AO31">
-        <v>6029173.500349007</v>
+        <v>2581577.940905871</v>
       </c>
       <c r="AP31">
-        <v>39243905.33559033</v>
+        <v>35830679.64904527</v>
       </c>
     </row>
     <row r="32" spans="1:42">
       <c r="A32">
-        <v>1842566.65209627</v>
+        <v>13907122.68011583</v>
       </c>
       <c r="B32">
-        <v>290173.8740203134</v>
+        <v>10363580.04284669</v>
       </c>
       <c r="C32">
-        <v>152369.7895332465</v>
+        <v>3131349.439534036</v>
       </c>
       <c r="D32">
-        <v>442898.122612313</v>
+        <v>2946424.095671079</v>
       </c>
       <c r="E32">
-        <v>344779.9292107907</v>
+        <v>2765956.994259736</v>
       </c>
       <c r="F32">
-        <v>2969709.666485457</v>
+        <v>6961352.197610795</v>
       </c>
       <c r="G32">
-        <v>866519.345733469</v>
+        <v>4283701.950544051</v>
       </c>
       <c r="H32">
-        <v>1527834.794796513</v>
+        <v>2193435.93536244</v>
       </c>
       <c r="I32">
-        <v>607626.5173875265</v>
+        <v>2359590.524903279</v>
       </c>
       <c r="J32">
-        <v>1434542.179504777</v>
+        <v>5817317.436988711</v>
       </c>
       <c r="K32">
-        <v>164738.5075212988</v>
+        <v>3523170.868797683</v>
       </c>
       <c r="L32">
-        <v>5148881.938715462</v>
+        <v>22266680.47453378</v>
       </c>
       <c r="M32">
-        <v>1729217.700221388</v>
+        <v>14891003.82596523</v>
       </c>
       <c r="N32">
-        <v>1281835.147344632</v>
+        <v>32471023.24936586</v>
       </c>
       <c r="O32">
-        <v>1365563.350533399</v>
+        <v>8746627.127736708</v>
       </c>
       <c r="P32">
-        <v>2689959.252711629</v>
+        <v>7066221.099500614</v>
       </c>
       <c r="Q32">
-        <v>1341674.422116604</v>
+        <v>6808953.452222057</v>
       </c>
       <c r="R32">
-        <v>2262519.157689176</v>
+        <v>7401576.460035918</v>
       </c>
       <c r="S32">
-        <v>2711594.631722348</v>
+        <v>8289558.553233394</v>
       </c>
       <c r="T32">
-        <v>22782078.83102781</v>
+        <v>16761376.89091863</v>
       </c>
       <c r="U32">
-        <v>563498.9441062626</v>
+        <v>1516685.57453863</v>
       </c>
       <c r="V32">
-        <v>132624.6008335749</v>
+        <v>1427331.43112193</v>
       </c>
       <c r="W32">
-        <v>69378.58294296527</v>
+        <v>268145.7663685409</v>
       </c>
       <c r="X32">
-        <v>3520434.842685677</v>
+        <v>27976126.83716496</v>
       </c>
       <c r="Y32">
-        <v>184134.4421277205</v>
+        <v>1728978.933006441</v>
       </c>
       <c r="Z32">
-        <v>221442.871831327</v>
+        <v>1863265.982764864</v>
       </c>
       <c r="AA32">
-        <v>39400911.28101083</v>
+        <v>99268269.2658176</v>
       </c>
       <c r="AB32">
-        <v>9561425.774541572</v>
+        <v>54424434.32369149</v>
       </c>
       <c r="AC32">
-        <v>22675850.44906616</v>
+        <v>117446091.9760227</v>
       </c>
       <c r="AD32">
-        <v>3203910.615897206</v>
+        <v>4856776.146042759</v>
       </c>
       <c r="AE32">
-        <v>133177779.5573687</v>
+        <v>13920026.41482938</v>
       </c>
       <c r="AF32">
-        <v>41455809.2692422</v>
+        <v>88561589.63280031</v>
       </c>
       <c r="AG32">
-        <v>6322406.05647733</v>
+        <v>101230919.9010487</v>
       </c>
       <c r="AH32">
-        <v>9365599.305906238</v>
+        <v>55206679.46446269</v>
       </c>
       <c r="AI32">
-        <v>2035151.879305166</v>
+        <v>1644702.750191527</v>
       </c>
       <c r="AJ32">
-        <v>6752919.197557616</v>
+        <v>14799464.81411253</v>
       </c>
       <c r="AK32">
-        <v>1418018.774583353</v>
+        <v>3964013.184933641</v>
       </c>
       <c r="AL32">
-        <v>1483154.882269659</v>
+        <v>3284607.8484798</v>
       </c>
       <c r="AM32">
-        <v>8001709.022329746</v>
+        <v>11972291.67347511</v>
       </c>
       <c r="AN32">
-        <v>8034068.958611645</v>
+        <v>3359508.504323368</v>
       </c>
       <c r="AO32">
-        <v>2581577.940905871</v>
+        <v>4022785.68235232</v>
       </c>
       <c r="AP32">
-        <v>35830679.64904527</v>
+        <v>17432026.73299954</v>
       </c>
     </row>
     <row r="33" spans="1:42">
       <c r="A33">
-        <v>13907122.68011583</v>
+        <v>14715.35742204319</v>
       </c>
       <c r="B33">
-        <v>10363580.04284669</v>
+        <v>135599.5453623385</v>
       </c>
       <c r="C33">
-        <v>3131349.439534036</v>
+        <v>34480.58609507659</v>
       </c>
       <c r="D33">
-        <v>2946424.095671079</v>
+        <v>911.872575475785</v>
       </c>
       <c r="E33">
-        <v>2765956.994259736</v>
+        <v>39181.50338594431</v>
       </c>
       <c r="F33">
-        <v>6961352.197610795</v>
+        <v>382849.4280677073</v>
       </c>
       <c r="G33">
-        <v>4283701.950544051</v>
+        <v>81271.65013015611</v>
       </c>
       <c r="H33">
-        <v>2193435.93536244</v>
+        <v>149761.3843620924</v>
       </c>
       <c r="I33">
-        <v>2359590.524903279</v>
+        <v>191102.0875044245</v>
       </c>
       <c r="J33">
-        <v>5817317.436988711</v>
+        <v>184165.1333469385</v>
       </c>
       <c r="K33">
-        <v>3523170.868797683</v>
+        <v>6106.292239446409</v>
       </c>
       <c r="L33">
-        <v>22266680.47453378</v>
+        <v>514060.1067088611</v>
       </c>
       <c r="M33">
-        <v>14891003.82596523</v>
+        <v>275759.2545830459</v>
       </c>
       <c r="N33">
-        <v>32471023.24936586</v>
+        <v>33433.77503175971</v>
       </c>
       <c r="O33">
-        <v>8746627.127736708</v>
+        <v>217966.6758643072</v>
       </c>
       <c r="P33">
-        <v>7066221.099500614</v>
+        <v>259059.636192971</v>
       </c>
       <c r="Q33">
-        <v>6808953.452222057</v>
+        <v>128096.2871553921</v>
       </c>
       <c r="R33">
-        <v>7401576.460035918</v>
+        <v>279373.7939663525</v>
       </c>
       <c r="S33">
-        <v>8289558.553233394</v>
+        <v>307497.9214432067</v>
       </c>
       <c r="T33">
-        <v>16761376.89091863</v>
+        <v>418684.7377488816</v>
       </c>
       <c r="U33">
-        <v>1516685.57453863</v>
+        <v>93208.6730184753</v>
       </c>
       <c r="V33">
-        <v>1427331.43112193</v>
+        <v>30213.9091094604</v>
       </c>
       <c r="W33">
-        <v>268145.7663685409</v>
+        <v>138925.0907322841</v>
       </c>
       <c r="X33">
-        <v>27976126.83716496</v>
+        <v>97884.13954005246</v>
       </c>
       <c r="Y33">
-        <v>1728978.933006441</v>
+        <v>28135.80737394634</v>
       </c>
       <c r="Z33">
-        <v>1863265.982764864</v>
+        <v>30060.7124386925</v>
       </c>
       <c r="AA33">
-        <v>99268269.2658176</v>
+        <v>385449.1506785722</v>
       </c>
       <c r="AB33">
-        <v>54424434.32369149</v>
+        <v>86301737.40501392</v>
       </c>
       <c r="AC33">
-        <v>117446091.9760227</v>
+        <v>8774293.276026892</v>
       </c>
       <c r="AD33">
-        <v>4856776.146042759</v>
+        <v>17416515.45546081</v>
       </c>
       <c r="AE33">
-        <v>13920026.41482938</v>
+        <v>36845092.89304486</v>
       </c>
       <c r="AF33">
-        <v>88561589.63280031</v>
+        <v>91038484.00179967</v>
       </c>
       <c r="AG33">
-        <v>101230919.9010487</v>
+        <v>33021360.95955236</v>
       </c>
       <c r="AH33">
-        <v>55206679.46446269</v>
+        <v>42661257.89092138</v>
       </c>
       <c r="AI33">
-        <v>1644702.750191527</v>
+        <v>2687633.205907025</v>
       </c>
       <c r="AJ33">
-        <v>14799464.81411253</v>
+        <v>5896893.99758803</v>
       </c>
       <c r="AK33">
-        <v>3964013.184933641</v>
+        <v>989683.1210849603</v>
       </c>
       <c r="AL33">
-        <v>3284607.8484798</v>
+        <v>23464249.66424094</v>
       </c>
       <c r="AM33">
-        <v>11972291.67347511</v>
+        <v>12655983.80563151</v>
       </c>
       <c r="AN33">
-        <v>3359508.504323368</v>
+        <v>5453690.266041474</v>
       </c>
       <c r="AO33">
-        <v>4022785.68235232</v>
+        <v>5262546.682014087</v>
       </c>
       <c r="AP33">
-        <v>17432026.73299954</v>
+        <v>11184083.7515791</v>
       </c>
     </row>
     <row r="34" spans="1:42">
       <c r="A34">
-        <v>14715.35742204319</v>
+        <v>2720765.357007619</v>
       </c>
       <c r="B34">
-        <v>135599.5453623385</v>
+        <v>7482319.829019602</v>
       </c>
       <c r="C34">
-        <v>34480.58609507659</v>
+        <v>1912096.78224086</v>
       </c>
       <c r="D34">
-        <v>911.872575475785</v>
+        <v>2285514.186605368</v>
       </c>
       <c r="E34">
-        <v>39181.50338594431</v>
+        <v>2125578.914354919</v>
       </c>
       <c r="F34">
-        <v>382849.4280677073</v>
+        <v>28783708.6092938</v>
       </c>
       <c r="G34">
-        <v>81271.65013015611</v>
+        <v>2761176.688626745</v>
       </c>
       <c r="H34">
-        <v>149761.3843620924</v>
+        <v>9479235.755216323</v>
       </c>
       <c r="I34">
-        <v>191102.0875044245</v>
+        <v>2926874.309897687</v>
       </c>
       <c r="J34">
-        <v>184165.1333469385</v>
+        <v>7937823.753589667</v>
       </c>
       <c r="K34">
-        <v>6106.292239446409</v>
+        <v>3189723.91914277</v>
       </c>
       <c r="L34">
-        <v>514060.1067088611</v>
+        <v>34594439.10332021</v>
       </c>
       <c r="M34">
-        <v>275759.2545830459</v>
+        <v>12051358.34012724</v>
       </c>
       <c r="N34">
-        <v>33433.77503175971</v>
+        <v>6780839.881689271</v>
       </c>
       <c r="O34">
-        <v>217966.6758643072</v>
+        <v>6452534.321413409</v>
       </c>
       <c r="P34">
-        <v>259059.636192971</v>
+        <v>9120607.218859963</v>
       </c>
       <c r="Q34">
-        <v>128096.2871553921</v>
+        <v>8694749.14026233</v>
       </c>
       <c r="R34">
-        <v>279373.7939663525</v>
+        <v>19693312.17484523</v>
       </c>
       <c r="S34">
-        <v>307497.9214432067</v>
+        <v>10990785.59379062</v>
       </c>
       <c r="T34">
-        <v>418684.7377488816</v>
+        <v>17032564.02342767</v>
       </c>
       <c r="U34">
-        <v>93208.6730184753</v>
+        <v>1304868.694497077</v>
       </c>
       <c r="V34">
-        <v>30213.9091094604</v>
+        <v>1080186.447049118</v>
       </c>
       <c r="W34">
-        <v>138925.0907322841</v>
+        <v>443044.0139674089</v>
       </c>
       <c r="X34">
-        <v>97884.13954005246</v>
+        <v>3797873.777053461</v>
       </c>
       <c r="Y34">
-        <v>28135.80737394634</v>
+        <v>990556.9330664307</v>
       </c>
       <c r="Z34">
-        <v>30060.7124386925</v>
+        <v>354093.4262953551</v>
       </c>
       <c r="AA34">
-        <v>385449.1506785722</v>
+        <v>41268781.93585374</v>
       </c>
       <c r="AB34">
-        <v>86301737.40501392</v>
+        <v>131088891.2492937</v>
       </c>
       <c r="AC34">
-        <v>8774293.276026892</v>
+        <v>23512608.43934836</v>
       </c>
       <c r="AD34">
-        <v>17416515.45546081</v>
+        <v>10008262.08164897</v>
       </c>
       <c r="AE34">
-        <v>36845092.89304486</v>
+        <v>46800178.6569103</v>
       </c>
       <c r="AF34">
-        <v>91038484.00179967</v>
+        <v>99434546.33765185</v>
       </c>
       <c r="AG34">
-        <v>33021360.95955236</v>
+        <v>50494127.17732764</v>
       </c>
       <c r="AH34">
-        <v>42661257.89092138</v>
+        <v>86383770.57772265</v>
       </c>
       <c r="AI34">
-        <v>2687633.205907025</v>
+        <v>6619055.032787258</v>
       </c>
       <c r="AJ34">
-        <v>5896893.99758803</v>
+        <v>19261667.11398951</v>
       </c>
       <c r="AK34">
-        <v>989683.1210849603</v>
+        <v>2608420.591675693</v>
       </c>
       <c r="AL34">
-        <v>23464249.66424094</v>
+        <v>6248930.575508966</v>
       </c>
       <c r="AM34">
-        <v>12655983.80563151</v>
+        <v>4501072.777792361</v>
       </c>
       <c r="AN34">
-        <v>5453690.266041474</v>
+        <v>2319805.176247431</v>
       </c>
       <c r="AO34">
-        <v>5262546.682014087</v>
+        <v>6856603.006420016</v>
       </c>
       <c r="AP34">
-        <v>11184083.7515791</v>
+        <v>19417617.84955934</v>
       </c>
     </row>
     <row r="35" spans="1:42">
       <c r="A35">
-        <v>2720765.357007619</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>7482319.829019602</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1912096.78224086</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>2285514.186605368</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>2125578.914354919</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>28783708.6092938</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>2761176.688626745</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>9479235.755216323</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2926874.309897687</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>7937823.753589667</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>3189723.91914277</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>34594439.10332021</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>12051358.34012724</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>6780839.881689271</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>6452534.321413409</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>9120607.218859963</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>8694749.14026233</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>19693312.17484523</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>10990785.59379062</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>17032564.02342767</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>1304868.694497077</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>1080186.447049118</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>443044.0139674089</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>3797873.777053461</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>990556.9330664307</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>354093.4262953551</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>41268781.93585374</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>131088891.2492937</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>23512608.43934836</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>10008262.08164897</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>46800178.6569103</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>99434546.33765185</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>50494127.17732764</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>86383770.57772265</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>6619055.032787258</v>
+        <v>683546.8569985976</v>
       </c>
       <c r="AJ35">
-        <v>19261667.11398951</v>
+        <v>0</v>
       </c>
       <c r="AK35">
-        <v>2608420.591675693</v>
+        <v>0</v>
       </c>
       <c r="AL35">
-        <v>6248930.575508966</v>
+        <v>0</v>
       </c>
       <c r="AM35">
-        <v>4501072.777792361</v>
+        <v>0</v>
       </c>
       <c r="AN35">
-        <v>2319805.176247431</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>6856603.006420016</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>19417617.84955934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:42">
       <c r="A36">
-        <v>0</v>
+        <v>7955831.072153086</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2296959.56161696</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>603059.8852020907</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1283828.003044115</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1358387.038328003</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1860346.533028715</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>362875.568876728</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1162946.585195411</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>978722.3117798198</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1359926.925293103</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>140093.0893249936</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>9536255.899180934</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>2796502.069462449</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>3333928.689437847</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>2264584.920715376</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>3748712.958192824</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>3129229.079659552</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>10055167.67378354</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>3006899.673134803</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>8218585.770758105</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>779515.8152542978</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>136647.3826370453</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>55608.27205295303</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>3424005.613521269</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>5129.199102614223</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>27957.65159458898</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>194672844.6860991</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>10143551.60142456</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>2757433.066376369</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>238709.4575438957</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>2222235.049716825</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>1308521.616289816</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>778828.3058983433</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>100236.1443364089</v>
       </c>
       <c r="AI36">
-        <v>683546.8569985976</v>
+        <v>11273682.1101305</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>59433380.08776245</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>322236.6425136237</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>13508.01751623645</v>
       </c>
       <c r="AM36">
-        <v>0</v>
+        <v>1262957.296578334</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>283695.1386503552</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>35098.77209313266</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>386300.9590664263</v>
       </c>
     </row>
     <row r="37" spans="1:42">
       <c r="A37">
-        <v>7955831.072153086</v>
+        <v>1813111.072051663</v>
       </c>
       <c r="B37">
-        <v>2296959.56161696</v>
+        <v>94949.04237467189</v>
       </c>
       <c r="C37">
-        <v>603059.8852020907</v>
+        <v>56010.27033469155</v>
       </c>
       <c r="D37">
-        <v>1283828.003044115</v>
+        <v>151547.1461631506</v>
       </c>
       <c r="E37">
-        <v>1358387.038328003</v>
+        <v>234002.3188290505</v>
       </c>
       <c r="F37">
-        <v>1860346.533028715</v>
+        <v>479181.3799565661</v>
       </c>
       <c r="G37">
-        <v>362875.568876728</v>
+        <v>619298.505585187</v>
       </c>
       <c r="H37">
-        <v>1162946.585195411</v>
+        <v>120176.3607035373</v>
       </c>
       <c r="I37">
-        <v>978722.3117798198</v>
+        <v>110451.9544268813</v>
       </c>
       <c r="J37">
-        <v>1359926.925293103</v>
+        <v>719533.7497529694</v>
       </c>
       <c r="K37">
-        <v>140093.0893249936</v>
+        <v>157101.4787492265</v>
       </c>
       <c r="L37">
-        <v>9536255.899180934</v>
+        <v>837276.0080132664</v>
       </c>
       <c r="M37">
-        <v>2796502.069462449</v>
+        <v>417009.3178565202</v>
       </c>
       <c r="N37">
-        <v>3333928.689437847</v>
+        <v>779134.4373577717</v>
       </c>
       <c r="O37">
-        <v>2264584.920715376</v>
+        <v>186125.6440268993</v>
       </c>
       <c r="P37">
-        <v>3748712.958192824</v>
+        <v>245990.0184760682</v>
       </c>
       <c r="Q37">
-        <v>3129229.079659552</v>
+        <v>164224.17564188</v>
       </c>
       <c r="R37">
-        <v>10055167.67378354</v>
+        <v>312314.8029687114</v>
       </c>
       <c r="S37">
-        <v>3006899.673134803</v>
+        <v>235135.6744079224</v>
       </c>
       <c r="T37">
-        <v>8218585.770758105</v>
+        <v>277398.5200452865</v>
       </c>
       <c r="U37">
-        <v>779515.8152542978</v>
+        <v>47725.73517810117</v>
       </c>
       <c r="V37">
-        <v>136647.3826370453</v>
+        <v>69843.10727671583</v>
       </c>
       <c r="W37">
-        <v>55608.27205295303</v>
+        <v>19677.40982021498</v>
       </c>
       <c r="X37">
-        <v>3424005.613521269</v>
+        <v>2147091.451568312</v>
       </c>
       <c r="Y37">
-        <v>5129.199102614223</v>
+        <v>8801.753017353463</v>
       </c>
       <c r="Z37">
-        <v>27957.65159458898</v>
+        <v>2008268.020443548</v>
       </c>
       <c r="AA37">
-        <v>194672844.6860991</v>
+        <v>683491.3293256997</v>
       </c>
       <c r="AB37">
-        <v>10143551.60142456</v>
+        <v>1876420.296965897</v>
       </c>
       <c r="AC37">
-        <v>2757433.066376369</v>
+        <v>1635031.66492833</v>
       </c>
       <c r="AD37">
-        <v>238709.4575438957</v>
+        <v>332390.4035832614</v>
       </c>
       <c r="AE37">
-        <v>2222235.049716825</v>
+        <v>625002.8300456245</v>
       </c>
       <c r="AF37">
-        <v>1308521.616289816</v>
+        <v>2547833.854152555</v>
       </c>
       <c r="AG37">
-        <v>778828.3058983433</v>
+        <v>317979.1912558089</v>
       </c>
       <c r="AH37">
-        <v>100236.1443364089</v>
+        <v>2983346.93892438</v>
       </c>
       <c r="AI37">
-        <v>11273682.1101305</v>
+        <v>480945.6429734851</v>
       </c>
       <c r="AJ37">
-        <v>59433380.08776245</v>
+        <v>424772.1320956197</v>
       </c>
       <c r="AK37">
-        <v>322236.6425136237</v>
+        <v>2793522.20868758</v>
       </c>
       <c r="AL37">
-        <v>13508.01751623645</v>
+        <v>429556.8441149316</v>
       </c>
       <c r="AM37">
-        <v>1262957.296578334</v>
+        <v>448486.5178814079</v>
       </c>
       <c r="AN37">
-        <v>283695.1386503552</v>
+        <v>402959.7316981225</v>
       </c>
       <c r="AO37">
-        <v>35098.77209313266</v>
+        <v>347677.4712455258</v>
       </c>
       <c r="AP37">
-        <v>386300.9590664263</v>
+        <v>1519550.011471992</v>
       </c>
     </row>
     <row r="38" spans="1:42">
       <c r="A38">
-        <v>1813111.072051663</v>
+        <v>1072043.296138849</v>
       </c>
       <c r="B38">
-        <v>94949.04237467189</v>
+        <v>1639586.642162037</v>
       </c>
       <c r="C38">
-        <v>56010.27033469155</v>
+        <v>213808.4657602805</v>
       </c>
       <c r="D38">
-        <v>151547.1461631506</v>
+        <v>128228.5044514952</v>
       </c>
       <c r="E38">
-        <v>234002.3188290505</v>
+        <v>319133.070385486</v>
       </c>
       <c r="F38">
-        <v>479181.3799565661</v>
+        <v>2104062.152270469</v>
       </c>
       <c r="G38">
-        <v>619298.505585187</v>
+        <v>593259.3015037484</v>
       </c>
       <c r="H38">
-        <v>120176.3607035373</v>
+        <v>615699.6790757262</v>
       </c>
       <c r="I38">
-        <v>110451.9544268813</v>
+        <v>738914.9966678756</v>
       </c>
       <c r="J38">
-        <v>719533.7497529694</v>
+        <v>1272897.547613124</v>
       </c>
       <c r="K38">
-        <v>157101.4787492265</v>
+        <v>525809.702884332</v>
       </c>
       <c r="L38">
-        <v>837276.0080132664</v>
+        <v>4221463.927249973</v>
       </c>
       <c r="M38">
-        <v>417009.3178565202</v>
+        <v>2235864.044327554</v>
       </c>
       <c r="N38">
-        <v>779134.4373577717</v>
+        <v>1516961.927295232</v>
       </c>
       <c r="O38">
-        <v>186125.6440268993</v>
+        <v>1760780.419178447</v>
       </c>
       <c r="P38">
-        <v>245990.0184760682</v>
+        <v>1793010.445421793</v>
       </c>
       <c r="Q38">
-        <v>164224.17564188</v>
+        <v>1215626.729129668</v>
       </c>
       <c r="R38">
-        <v>312314.8029687114</v>
+        <v>4138851.509606418</v>
       </c>
       <c r="S38">
-        <v>235135.6744079224</v>
+        <v>2013231.065892352</v>
       </c>
       <c r="T38">
-        <v>277398.5200452865</v>
+        <v>2297680.449591419</v>
       </c>
       <c r="U38">
-        <v>47725.73517810117</v>
+        <v>308120.1841139735</v>
       </c>
       <c r="V38">
-        <v>69843.10727671583</v>
+        <v>224964.7649407645</v>
       </c>
       <c r="W38">
-        <v>19677.40982021498</v>
+        <v>60185.44032617425</v>
       </c>
       <c r="X38">
-        <v>2147091.451568312</v>
+        <v>2175623.600485213</v>
       </c>
       <c r="Y38">
-        <v>8801.753017353463</v>
+        <v>144243.0765805466</v>
       </c>
       <c r="Z38">
-        <v>2008268.020443548</v>
+        <v>292134.2291975059</v>
       </c>
       <c r="AA38">
-        <v>683491.3293256997</v>
+        <v>14725275.57722112</v>
       </c>
       <c r="AB38">
-        <v>1876420.296965897</v>
+        <v>8802818.823823396</v>
       </c>
       <c r="AC38">
-        <v>1635031.66492833</v>
+        <v>14543101.6519277</v>
       </c>
       <c r="AD38">
-        <v>332390.4035832614</v>
+        <v>2852329.103704118</v>
       </c>
       <c r="AE38">
-        <v>625002.8300456245</v>
+        <v>1687196.984499445</v>
       </c>
       <c r="AF38">
-        <v>2547833.854152555</v>
+        <v>5794355.172497068</v>
       </c>
       <c r="AG38">
-        <v>317979.1912558089</v>
+        <v>1543458.583993154</v>
       </c>
       <c r="AH38">
-        <v>2983346.93892438</v>
+        <v>6814791.698154969</v>
       </c>
       <c r="AI38">
-        <v>480945.6429734851</v>
+        <v>2527436.10334164</v>
       </c>
       <c r="AJ38">
-        <v>424772.1320956197</v>
+        <v>4226868.584608059</v>
       </c>
       <c r="AK38">
-        <v>2793522.20868758</v>
+        <v>3693210.225078218</v>
       </c>
       <c r="AL38">
-        <v>429556.8441149316</v>
+        <v>4439308.99186024</v>
       </c>
       <c r="AM38">
-        <v>448486.5178814079</v>
+        <v>4998622.49540382</v>
       </c>
       <c r="AN38">
-        <v>402959.7316981225</v>
+        <v>3086413.934037527</v>
       </c>
       <c r="AO38">
-        <v>347677.4712455258</v>
+        <v>2206873.420390939</v>
       </c>
       <c r="AP38">
-        <v>1519550.011471992</v>
+        <v>14621488.47061064</v>
       </c>
     </row>
     <row r="39" spans="1:42">
       <c r="A39">
-        <v>1072043.296138849</v>
+        <v>145537.5755537785</v>
       </c>
       <c r="B39">
-        <v>1639586.642162037</v>
+        <v>82171.9639529816</v>
       </c>
       <c r="C39">
-        <v>213808.4657602805</v>
+        <v>12799.87237444301</v>
       </c>
       <c r="D39">
-        <v>128228.5044514952</v>
+        <v>15261.02860833595</v>
       </c>
       <c r="E39">
-        <v>319133.070385486</v>
+        <v>17764.80012088524</v>
       </c>
       <c r="F39">
-        <v>2104062.152270469</v>
+        <v>147151.5247437952</v>
       </c>
       <c r="G39">
-        <v>593259.3015037484</v>
+        <v>43907.35299815318</v>
       </c>
       <c r="H39">
-        <v>615699.6790757262</v>
+        <v>58228.09953399923</v>
       </c>
       <c r="I39">
-        <v>738914.9966678756</v>
+        <v>59023.6116601902</v>
       </c>
       <c r="J39">
-        <v>1272897.547613124</v>
+        <v>46281.14579463479</v>
       </c>
       <c r="K39">
-        <v>525809.702884332</v>
+        <v>22549.25036384911</v>
       </c>
       <c r="L39">
-        <v>4221463.927249973</v>
+        <v>254578.6917743185</v>
       </c>
       <c r="M39">
-        <v>2235864.044327554</v>
+        <v>127628.7638720138</v>
       </c>
       <c r="N39">
-        <v>1516961.927295232</v>
+        <v>57429.83433079749</v>
       </c>
       <c r="O39">
-        <v>1760780.419178447</v>
+        <v>100098.7323287636</v>
       </c>
       <c r="P39">
-        <v>1793010.445421793</v>
+        <v>102425.837721607</v>
       </c>
       <c r="Q39">
-        <v>1215626.729129668</v>
+        <v>65212.98466393184</v>
       </c>
       <c r="R39">
-        <v>4138851.509606418</v>
+        <v>107186.9259778611</v>
       </c>
       <c r="S39">
-        <v>2013231.065892352</v>
+        <v>69564.84426919975</v>
       </c>
       <c r="T39">
-        <v>2297680.449591419</v>
+        <v>83387.28331451409</v>
       </c>
       <c r="U39">
-        <v>308120.1841139735</v>
+        <v>22548.16130994801</v>
       </c>
       <c r="V39">
-        <v>224964.7649407645</v>
+        <v>14882.42736799901</v>
       </c>
       <c r="W39">
-        <v>60185.44032617425</v>
+        <v>12112.95509454036</v>
       </c>
       <c r="X39">
-        <v>2175623.600485213</v>
+        <v>16495.52007016325</v>
       </c>
       <c r="Y39">
-        <v>144243.0765805466</v>
+        <v>9612.717855542511</v>
       </c>
       <c r="Z39">
-        <v>292134.2291975059</v>
+        <v>14710.51461190064</v>
       </c>
       <c r="AA39">
-        <v>14725275.57722112</v>
+        <v>537217.0048156541</v>
       </c>
       <c r="AB39">
-        <v>8802818.823823396</v>
+        <v>1345985.560973721</v>
       </c>
       <c r="AC39">
-        <v>14543101.6519277</v>
+        <v>812515.1767682618</v>
       </c>
       <c r="AD39">
-        <v>2852329.103704118</v>
+        <v>341701.2511633581</v>
       </c>
       <c r="AE39">
-        <v>1687196.984499445</v>
+        <v>452047.0785360439</v>
       </c>
       <c r="AF39">
-        <v>5794355.172497068</v>
+        <v>4409298.990179807</v>
       </c>
       <c r="AG39">
-        <v>1543458.583993154</v>
+        <v>220462.3988033936</v>
       </c>
       <c r="AH39">
-        <v>6814791.698154969</v>
+        <v>439656.4645703608</v>
       </c>
       <c r="AI39">
-        <v>2527436.10334164</v>
+        <v>107706.2306921714</v>
       </c>
       <c r="AJ39">
-        <v>4226868.584608059</v>
+        <v>354953.4243504223</v>
       </c>
       <c r="AK39">
-        <v>3693210.225078218</v>
+        <v>53346.1191156218</v>
       </c>
       <c r="AL39">
-        <v>4439308.99186024</v>
+        <v>166828.9212043268</v>
       </c>
       <c r="AM39">
-        <v>4998622.49540382</v>
+        <v>5400374.203338952</v>
       </c>
       <c r="AN39">
-        <v>3086413.934037527</v>
+        <v>820500.9972113338</v>
       </c>
       <c r="AO39">
-        <v>2206873.420390939</v>
+        <v>240187.8492080539</v>
       </c>
       <c r="AP39">
-        <v>14621488.47061064</v>
+        <v>6616121.586494849</v>
       </c>
     </row>
     <row r="40" spans="1:42">
       <c r="A40">
-        <v>145537.5755537785</v>
+        <v>117704.6654670594</v>
       </c>
       <c r="B40">
-        <v>82171.9639529816</v>
+        <v>150850.7920169887</v>
       </c>
       <c r="C40">
-        <v>12799.87237444301</v>
+        <v>17522.30141627072</v>
       </c>
       <c r="D40">
-        <v>15261.02860833595</v>
+        <v>63986.28192226939</v>
       </c>
       <c r="E40">
-        <v>17764.80012088524</v>
+        <v>61297.01329113121</v>
       </c>
       <c r="F40">
-        <v>147151.5247437952</v>
+        <v>96525.99945880547</v>
       </c>
       <c r="G40">
-        <v>43907.35299815318</v>
+        <v>40250.6048166291</v>
       </c>
       <c r="H40">
-        <v>58228.09953399923</v>
+        <v>81508.79800866661</v>
       </c>
       <c r="I40">
-        <v>59023.6116601902</v>
+        <v>49278.8936353848</v>
       </c>
       <c r="J40">
-        <v>46281.14579463479</v>
+        <v>89419.88068130832</v>
       </c>
       <c r="K40">
-        <v>22549.25036384911</v>
+        <v>499009.6992865423</v>
       </c>
       <c r="L40">
-        <v>254578.6917743185</v>
+        <v>171432.4402141981</v>
       </c>
       <c r="M40">
-        <v>127628.7638720138</v>
+        <v>263075.5360701841</v>
       </c>
       <c r="N40">
-        <v>57429.83433079749</v>
+        <v>386508.7804215663</v>
       </c>
       <c r="O40">
-        <v>100098.7323287636</v>
+        <v>253336.458059068</v>
       </c>
       <c r="P40">
-        <v>102425.837721607</v>
+        <v>354606.5111982217</v>
       </c>
       <c r="Q40">
-        <v>65212.98466393184</v>
+        <v>208983.1135605877</v>
       </c>
       <c r="R40">
-        <v>107186.9259778611</v>
+        <v>290420.1887218039</v>
       </c>
       <c r="S40">
-        <v>69564.84426919975</v>
+        <v>240603.4233236371</v>
       </c>
       <c r="T40">
-        <v>83387.28331451409</v>
+        <v>160184.9829998212</v>
       </c>
       <c r="U40">
-        <v>22548.16130994801</v>
+        <v>35834.7567268795</v>
       </c>
       <c r="V40">
-        <v>14882.42736799901</v>
+        <v>11152.2716477212</v>
       </c>
       <c r="W40">
-        <v>12112.95509454036</v>
+        <v>3993.593546207953</v>
       </c>
       <c r="X40">
-        <v>16495.52007016325</v>
+        <v>286409.3295882178</v>
       </c>
       <c r="Y40">
-        <v>9612.717855542511</v>
+        <v>18551.37468336748</v>
       </c>
       <c r="Z40">
-        <v>14710.51461190064</v>
+        <v>1147.531597134876</v>
       </c>
       <c r="AA40">
-        <v>537217.0048156541</v>
+        <v>1058519.19803839</v>
       </c>
       <c r="AB40">
-        <v>1345985.560973721</v>
+        <v>406439.253276162</v>
       </c>
       <c r="AC40">
-        <v>812515.1767682618</v>
+        <v>279595.9114319736</v>
       </c>
       <c r="AD40">
-        <v>341701.2511633581</v>
+        <v>14266.58872943424</v>
       </c>
       <c r="AE40">
-        <v>452047.0785360439</v>
+        <v>17073.6414938842</v>
       </c>
       <c r="AF40">
-        <v>4409298.990179807</v>
+        <v>401269.4199604113</v>
       </c>
       <c r="AG40">
-        <v>220462.3988033936</v>
+        <v>2129.779657507953</v>
       </c>
       <c r="AH40">
-        <v>439656.4645703608</v>
+        <v>5217.181780645165</v>
       </c>
       <c r="AI40">
-        <v>107706.2306921714</v>
+        <v>15651.58545892775</v>
       </c>
       <c r="AJ40">
-        <v>354953.4243504223</v>
+        <v>32603.34062466492</v>
       </c>
       <c r="AK40">
-        <v>53346.1191156218</v>
+        <v>19795.3270555763</v>
       </c>
       <c r="AL40">
-        <v>166828.9212043268</v>
+        <v>69318.92732932644</v>
       </c>
       <c r="AM40">
-        <v>5400374.203338952</v>
+        <v>185995.8476879087</v>
       </c>
       <c r="AN40">
-        <v>820500.9972113338</v>
+        <v>2416113.520828213</v>
       </c>
       <c r="AO40">
-        <v>240187.8492080539</v>
+        <v>59467.25666830764</v>
       </c>
       <c r="AP40">
-        <v>6616121.586494849</v>
+        <v>2507660.680927347</v>
       </c>
     </row>
     <row r="41" spans="1:42">
       <c r="A41">
-        <v>117704.6654670594</v>
+        <v>86323.68836711654</v>
       </c>
       <c r="B41">
-        <v>150850.7920169887</v>
+        <v>251987.1085202442</v>
       </c>
       <c r="C41">
-        <v>17522.30141627072</v>
+        <v>153679.8711017041</v>
       </c>
       <c r="D41">
-        <v>63986.28192226939</v>
+        <v>136305.8926587097</v>
       </c>
       <c r="E41">
-        <v>61297.01329113121</v>
+        <v>77933.58322545083</v>
       </c>
       <c r="F41">
-        <v>96525.99945880547</v>
+        <v>917319.9056572336</v>
       </c>
       <c r="G41">
-        <v>40250.6048166291</v>
+        <v>405826.4154231086</v>
       </c>
       <c r="H41">
-        <v>81508.79800866661</v>
+        <v>429970.0891293997</v>
       </c>
       <c r="I41">
-        <v>49278.8936353848</v>
+        <v>274184.4591496922</v>
       </c>
       <c r="J41">
-        <v>89419.88068130832</v>
+        <v>301408.5368493507</v>
       </c>
       <c r="K41">
-        <v>499009.6992865423</v>
+        <v>178539.4491604062</v>
       </c>
       <c r="L41">
-        <v>171432.4402141981</v>
+        <v>1664615.039477753</v>
       </c>
       <c r="M41">
-        <v>263075.5360701841</v>
+        <v>953688.6683579833</v>
       </c>
       <c r="N41">
-        <v>386508.7804215663</v>
+        <v>928136.1333365646</v>
       </c>
       <c r="O41">
-        <v>253336.458059068</v>
+        <v>396425.2638049744</v>
       </c>
       <c r="P41">
-        <v>354606.5111982217</v>
+        <v>777451.1573662307</v>
       </c>
       <c r="Q41">
-        <v>208983.1135605877</v>
+        <v>404096.1803736889</v>
       </c>
       <c r="R41">
-        <v>290420.1887218039</v>
+        <v>1154348.901596849</v>
       </c>
       <c r="S41">
-        <v>240603.4233236371</v>
+        <v>664572.5875813287</v>
       </c>
       <c r="T41">
-        <v>160184.9829998212</v>
+        <v>1005107.67385395</v>
       </c>
       <c r="U41">
-        <v>35834.7567268795</v>
+        <v>67488.91710206811</v>
       </c>
       <c r="V41">
-        <v>11152.2716477212</v>
+        <v>91120.93673754708</v>
       </c>
       <c r="W41">
-        <v>3993.593546207953</v>
+        <v>20758.70064805276</v>
       </c>
       <c r="X41">
-        <v>286409.3295882178</v>
+        <v>739256.7865851354</v>
       </c>
       <c r="Y41">
-        <v>18551.37468336748</v>
+        <v>54111.39857197428</v>
       </c>
       <c r="Z41">
-        <v>1147.531597134876</v>
+        <v>94226.45248426532</v>
       </c>
       <c r="AA41">
-        <v>1058519.19803839</v>
+        <v>1805598.130773871</v>
       </c>
       <c r="AB41">
-        <v>406439.253276162</v>
+        <v>1301698.064869128</v>
       </c>
       <c r="AC41">
-        <v>279595.9114319736</v>
+        <v>1325548.449024667</v>
       </c>
       <c r="AD41">
-        <v>14266.58872943424</v>
+        <v>796235.2571668579</v>
       </c>
       <c r="AE41">
-        <v>17073.6414938842</v>
+        <v>2114970.319954189</v>
       </c>
       <c r="AF41">
-        <v>401269.4199604113</v>
+        <v>12317281.41633929</v>
       </c>
       <c r="AG41">
-        <v>2129.779657507953</v>
+        <v>997811.6151175557</v>
       </c>
       <c r="AH41">
-        <v>5217.181780645165</v>
+        <v>2637287.949956522</v>
       </c>
       <c r="AI41">
-        <v>15651.58545892775</v>
+        <v>877469.5974738663</v>
       </c>
       <c r="AJ41">
-        <v>32603.34062466492</v>
+        <v>894251.5157276053</v>
       </c>
       <c r="AK41">
-        <v>19795.3270555763</v>
+        <v>230277.0055833957</v>
       </c>
       <c r="AL41">
-        <v>69318.92732932644</v>
+        <v>871139.9429690344</v>
       </c>
       <c r="AM41">
-        <v>185995.8476879087</v>
+        <v>2594775.907447238</v>
       </c>
       <c r="AN41">
-        <v>2416113.520828213</v>
+        <v>307855.6781401869</v>
       </c>
       <c r="AO41">
-        <v>59467.25666830764</v>
+        <v>9384151.043224975</v>
       </c>
       <c r="AP41">
-        <v>2507660.680927347</v>
+        <v>7989619.129525216</v>
       </c>
     </row>
     <row r="42" spans="1:42">
       <c r="A42">
-        <v>86323.68836711654</v>
+        <v>398089.6537799397</v>
       </c>
       <c r="B42">
-        <v>251987.1085202442</v>
+        <v>66773.80406998024</v>
       </c>
       <c r="C42">
-        <v>153679.8711017041</v>
+        <v>29089.34251872105</v>
       </c>
       <c r="D42">
-        <v>136305.8926587097</v>
+        <v>38462.64396912904</v>
       </c>
       <c r="E42">
-        <v>77933.58322545083</v>
+        <v>43331.01159515177</v>
       </c>
       <c r="F42">
-        <v>917319.9056572336</v>
+        <v>276626.2301519664</v>
       </c>
       <c r="G42">
-        <v>405826.4154231086</v>
+        <v>159062.7419037748</v>
       </c>
       <c r="H42">
-        <v>429970.0891293997</v>
+        <v>128611.0797976472</v>
       </c>
       <c r="I42">
-        <v>274184.4591496922</v>
+        <v>75122.20075292401</v>
       </c>
       <c r="J42">
-        <v>301408.5368493507</v>
+        <v>133364.4573115576</v>
       </c>
       <c r="K42">
-        <v>178539.4491604062</v>
+        <v>38852.44170015583</v>
       </c>
       <c r="L42">
-        <v>1664615.039477753</v>
+        <v>596880.2489522267</v>
       </c>
       <c r="M42">
-        <v>953688.6683579833</v>
+        <v>466011.7235997814</v>
       </c>
       <c r="N42">
-        <v>928136.1333365646</v>
+        <v>202401.7049702922</v>
       </c>
       <c r="O42">
-        <v>396425.2638049744</v>
+        <v>216845.0939823284</v>
       </c>
       <c r="P42">
-        <v>777451.1573662307</v>
+        <v>201932.0325000388</v>
       </c>
       <c r="Q42">
-        <v>404096.1803736889</v>
+        <v>164408.5618969475</v>
       </c>
       <c r="R42">
-        <v>1154348.901596849</v>
+        <v>192389.3757923722</v>
       </c>
       <c r="S42">
-        <v>664572.5875813287</v>
+        <v>116375.2674854379</v>
       </c>
       <c r="T42">
-        <v>1005107.67385395</v>
+        <v>303824.4810142767</v>
       </c>
       <c r="U42">
-        <v>67488.91710206811</v>
+        <v>19515.62641315464</v>
       </c>
       <c r="V42">
-        <v>91120.93673754708</v>
+        <v>108712.0587242161</v>
       </c>
       <c r="W42">
-        <v>20758.70064805276</v>
+        <v>11831.43702010365</v>
       </c>
       <c r="X42">
-        <v>739256.7865851354</v>
+        <v>179465.1252919004</v>
       </c>
       <c r="Y42">
-        <v>54111.39857197428</v>
+        <v>10901.50520197861</v>
       </c>
       <c r="Z42">
-        <v>94226.45248426532</v>
+        <v>21354.73400422685</v>
       </c>
       <c r="AA42">
-        <v>1805598.130773871</v>
+        <v>365655.2961085706</v>
       </c>
       <c r="AB42">
-        <v>1301698.064869128</v>
+        <v>236960.3568939896</v>
       </c>
       <c r="AC42">
-        <v>1325548.449024667</v>
+        <v>414233.6382554286</v>
       </c>
       <c r="AD42">
-        <v>796235.2571668579</v>
+        <v>155769.5739203849</v>
       </c>
       <c r="AE42">
-        <v>2114970.319954189</v>
+        <v>362364.807200627</v>
       </c>
       <c r="AF42">
-        <v>12317281.41633929</v>
+        <v>957994.2715190017</v>
       </c>
       <c r="AG42">
-        <v>997811.6151175557</v>
+        <v>1098851.357265026</v>
       </c>
       <c r="AH42">
-        <v>2637287.949956522</v>
+        <v>1056365.648198925</v>
       </c>
       <c r="AI42">
-        <v>877469.5974738663</v>
+        <v>145782.4836105992</v>
       </c>
       <c r="AJ42">
-        <v>894251.5157276053</v>
+        <v>401571.9556615496</v>
       </c>
       <c r="AK42">
-        <v>230277.0055833957</v>
+        <v>84640.20813869523</v>
       </c>
       <c r="AL42">
-        <v>871139.9429690344</v>
+        <v>154138.7553003862</v>
       </c>
       <c r="AM42">
-        <v>2594775.907447238</v>
+        <v>809630.693132908</v>
       </c>
       <c r="AN42">
-        <v>307855.6781401869</v>
+        <v>145877.3743977123</v>
       </c>
       <c r="AO42">
-        <v>9384151.043224975</v>
+        <v>164119.6505603499</v>
       </c>
       <c r="AP42">
-        <v>7989619.129525216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:42">
-      <c r="A43">
-        <v>398089.6537799397</v>
-      </c>
-      <c r="B43">
-        <v>66773.80406998024</v>
-      </c>
-      <c r="C43">
-        <v>29089.34251872105</v>
-      </c>
-      <c r="D43">
-        <v>38462.64396912904</v>
-      </c>
-      <c r="E43">
-        <v>43331.01159515177</v>
-      </c>
-      <c r="F43">
-        <v>276626.2301519664</v>
-      </c>
-      <c r="G43">
-        <v>159062.7419037748</v>
-      </c>
-      <c r="H43">
-        <v>128611.0797976472</v>
-      </c>
-      <c r="I43">
-        <v>75122.20075292401</v>
-      </c>
-      <c r="J43">
-        <v>133364.4573115576</v>
-      </c>
-      <c r="K43">
-        <v>38852.44170015583</v>
-      </c>
-      <c r="L43">
-        <v>596880.2489522267</v>
-      </c>
-      <c r="M43">
-        <v>466011.7235997814</v>
-      </c>
-      <c r="N43">
-        <v>202401.7049702922</v>
-      </c>
-      <c r="O43">
-        <v>216845.0939823284</v>
-      </c>
-      <c r="P43">
-        <v>201932.0325000388</v>
-      </c>
-      <c r="Q43">
-        <v>164408.5618969475</v>
-      </c>
-      <c r="R43">
-        <v>192389.3757923722</v>
-      </c>
-      <c r="S43">
-        <v>116375.2674854379</v>
-      </c>
-      <c r="T43">
-        <v>303824.4810142767</v>
-      </c>
-      <c r="U43">
-        <v>19515.62641315464</v>
-      </c>
-      <c r="V43">
-        <v>108712.0587242161</v>
-      </c>
-      <c r="W43">
-        <v>11831.43702010365</v>
-      </c>
-      <c r="X43">
-        <v>179465.1252919004</v>
-      </c>
-      <c r="Y43">
-        <v>10901.50520197861</v>
-      </c>
-      <c r="Z43">
-        <v>21354.73400422685</v>
-      </c>
-      <c r="AA43">
-        <v>365655.2961085706</v>
-      </c>
-      <c r="AB43">
-        <v>236960.3568939896</v>
-      </c>
-      <c r="AC43">
-        <v>414233.6382554286</v>
-      </c>
-      <c r="AD43">
-        <v>155769.5739203849</v>
-      </c>
-      <c r="AE43">
-        <v>362364.807200627</v>
-      </c>
-      <c r="AF43">
-        <v>957994.2715190017</v>
-      </c>
-      <c r="AG43">
-        <v>1098851.357265026</v>
-      </c>
-      <c r="AH43">
-        <v>1056365.648198925</v>
-      </c>
-      <c r="AI43">
-        <v>145782.4836105992</v>
-      </c>
-      <c r="AJ43">
-        <v>401571.9556615496</v>
-      </c>
-      <c r="AK43">
-        <v>84640.20813869523</v>
-      </c>
-      <c r="AL43">
-        <v>154138.7553003862</v>
-      </c>
-      <c r="AM43">
-        <v>809630.693132908</v>
-      </c>
-      <c r="AN43">
-        <v>145877.3743977123</v>
-      </c>
-      <c r="AO43">
-        <v>164119.6505603499</v>
-      </c>
-      <c r="AP43">
         <v>17771882.25688608</v>
       </c>
     </row>
